--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A02041F-CE70-4F99-AE77-3F9E67AAD661}"/>
+  <xr:revisionPtr revIDLastSave="643" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F9B9B16-2D3B-4CC7-8149-3DDF01EAD5DD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$F$116</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +38,197 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0AFB43E9-6C67-4A5C-8149-003C166BBE15}</author>
+    <author>tc={9A3AB837-42E6-490C-BBB6-E33BFDC4F4A7}</author>
+    <author>tc={9C07D3C4-1C42-4ED4-A0A6-BAC7A2382877}</author>
+    <author>tc={68A2920C-225B-4A03-9C84-6B994EEA813E}</author>
+    <author>tc={25C6B889-74E2-489E-99AF-BA6556EEBA52}</author>
+    <author>tc={DE3C649B-059E-441C-B972-EBAF9EBFF424}</author>
+    <author>tc={0B788EB9-3DE1-4831-AA75-C67C2562597A}</author>
+    <author>tc={CD504131-FC5A-442A-8D52-93E56956360B}</author>
+    <author>tc={72F66FC8-83B7-4860-A48C-18B72149FF90}</author>
+    <author>tc={B35CAB75-546F-45E9-9954-4C8A11A29590}</author>
+    <author>tc={83BB326C-8A37-4FEF-94D7-6CD6AC88E587}</author>
+    <author>tc={962D91F9-D259-4EAC-AAF4-3BE2677CA376}</author>
+    <author>tc={1AE0F2D7-1F6F-40A1-A212-52C8D33FFF0D}</author>
+    <author>tc={3C6F5A1B-BD7A-47B4-B88D-D72B5EF1D4BD}</author>
+    <author>tc={775D52E0-5C93-4BDD-8B1B-C3270CD88D0B}</author>
+    <author>tc={AC935F55-BFF2-4258-8A91-9A8B36A02DFB}</author>
+    <author>tc={D86AB512-0C81-4FC3-9724-E0B0B35C6675}</author>
+    <author>tc={2740E655-C4B8-4A82-BEAB-30DCAD0D8327}</author>
+    <author>tc={092D71B2-2F5E-4888-88BB-EF17F5E44EF6}</author>
+    <author>tc={0F92A923-18B6-4906-8411-8625F182B144}</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{0AFB43E9-6C67-4A5C-8149-003C166BBE15}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ISKNV</t>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{9A3AB837-42E6-490C-BBB6-E33BFDC4F4A7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="2" shapeId="0" xr:uid="{9C07D3C4-1C42-4ED4-A0A6-BAC7A2382877}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="3" shapeId="0" xr:uid="{68A2920C-225B-4A03-9C84-6B994EEA813E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TRBIV or TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="4" shapeId="0" xr:uid="{25C6B889-74E2-489E-99AF-BA6556EEBA52}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TSIV, TRBIV, maybe SDDV</t>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="5" shapeId="0" xr:uid="{DE3C649B-059E-441C-B972-EBAF9EBFF424}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TSIV or TRBIV</t>
+      </text>
+    </comment>
+    <comment ref="E59" authorId="6" shapeId="0" xr:uid="{0B788EB9-3DE1-4831-AA75-C67C2562597A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E66" authorId="7" shapeId="0" xr:uid="{CD504131-FC5A-442A-8D52-93E56956360B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TRBIV</t>
+      </text>
+    </comment>
+    <comment ref="E69" authorId="8" shapeId="0" xr:uid="{72F66FC8-83B7-4860-A48C-18B72149FF90}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ISKNV or TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E72" authorId="9" shapeId="0" xr:uid="{B35CAB75-546F-45E9-9954-4C8A11A29590}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TRBIV and TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E85" authorId="10" shapeId="0" xr:uid="{83BB326C-8A37-4FEF-94D7-6CD6AC88E587}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ISKNV and TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E87" authorId="11" shapeId="0" xr:uid="{962D91F9-D259-4EAC-AAF4-3BE2677CA376}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ISKNV and SDDV</t>
+      </text>
+    </comment>
+    <comment ref="E90" authorId="12" shapeId="0" xr:uid="{1AE0F2D7-1F6F-40A1-A212-52C8D33FFF0D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ISKNV and TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E92" authorId="13" shapeId="0" xr:uid="{3C6F5A1B-BD7A-47B4-B88D-D72B5EF1D4BD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TRBIV and TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E93" authorId="14" shapeId="0" xr:uid="{775D52E0-5C93-4BDD-8B1B-C3270CD88D0B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TSIV, ISKNV</t>
+      </text>
+    </comment>
+    <comment ref="E100" authorId="15" shapeId="0" xr:uid="{AC935F55-BFF2-4258-8A91-9A8B36A02DFB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ISKNV or TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E110" authorId="16" shapeId="0" xr:uid="{D86AB512-0C81-4FC3-9724-E0B0B35C6675}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TSIV or RSIV</t>
+      </text>
+    </comment>
+    <comment ref="E113" authorId="17" shapeId="0" xr:uid="{2740E655-C4B8-4A82-BEAB-30DCAD0D8327}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ISKNV and TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E115" authorId="18" shapeId="0" xr:uid="{092D71B2-2F5E-4888-88BB-EF17F5E44EF6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TSIV</t>
+      </text>
+    </comment>
+    <comment ref="E116" authorId="19" shapeId="0" xr:uid="{0F92A923-18B6-4906-8411-8625F182B144}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TSIV, SDDV</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="121">
   <si>
     <t>OG0000000</t>
   </si>
@@ -405,7 +597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +618,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -454,15 +652,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -473,6 +760,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Hannaford, Polly (AAHL, Geelong ACDP)" id="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" userId="S::han394@csiro.au::ce3b099b-feb8-492e-85ff-2cbd0f66ca7f" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -790,12 +1083,77 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H3" dT="2025-04-24T03:58:20.96" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0AFB43E9-6C67-4A5C-8149-003C166BBE15}">
+    <text>ISKNV</text>
+  </threadedComment>
+  <threadedComment ref="E7" dT="2025-04-23T23:55:22.85" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{9A3AB837-42E6-490C-BBB6-E33BFDC4F4A7}">
+    <text>TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E10" dT="2025-04-23T23:57:17.05" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{9C07D3C4-1C42-4ED4-A0A6-BAC7A2382877}">
+    <text>TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E20" dT="2025-04-24T00:04:17.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{68A2920C-225B-4A03-9C84-6B994EEA813E}">
+    <text>TRBIV or TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E29" dT="2025-04-24T00:13:11.75" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{25C6B889-74E2-489E-99AF-BA6556EEBA52}">
+    <text>TSIV, TRBIV, maybe SDDV</text>
+  </threadedComment>
+  <threadedComment ref="E48" dT="2025-04-24T00:27:26.36" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{DE3C649B-059E-441C-B972-EBAF9EBFF424}">
+    <text>TSIV or TRBIV</text>
+  </threadedComment>
+  <threadedComment ref="E59" dT="2025-04-24T00:35:42.72" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0B788EB9-3DE1-4831-AA75-C67C2562597A}">
+    <text>TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E66" dT="2025-04-24T00:41:15.65" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{CD504131-FC5A-442A-8D52-93E56956360B}">
+    <text>TRBIV</text>
+  </threadedComment>
+  <threadedComment ref="E69" dT="2025-04-24T00:43:58.15" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{72F66FC8-83B7-4860-A48C-18B72149FF90}">
+    <text>ISKNV or TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E72" dT="2025-04-24T00:52:26.30" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{B35CAB75-546F-45E9-9954-4C8A11A29590}">
+    <text>TRBIV and TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E85" dT="2025-04-24T01:04:11.53" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{83BB326C-8A37-4FEF-94D7-6CD6AC88E587}">
+    <text>ISKNV and TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E87" dT="2025-04-24T01:05:16.59" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{962D91F9-D259-4EAC-AAF4-3BE2677CA376}">
+    <text>ISKNV and SDDV</text>
+  </threadedComment>
+  <threadedComment ref="E90" dT="2025-04-24T01:20:10.42" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{1AE0F2D7-1F6F-40A1-A212-52C8D33FFF0D}">
+    <text>ISKNV and TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E92" dT="2025-04-24T01:21:40.83" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{3C6F5A1B-BD7A-47B4-B88D-D72B5EF1D4BD}">
+    <text>TRBIV and TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E93" dT="2025-04-24T01:22:26.91" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{775D52E0-5C93-4BDD-8B1B-C3270CD88D0B}">
+    <text>TSIV, ISKNV</text>
+  </threadedComment>
+  <threadedComment ref="E100" dT="2025-04-24T01:27:14.73" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{AC935F55-BFF2-4258-8A91-9A8B36A02DFB}">
+    <text>ISKNV or TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E110" dT="2025-04-24T01:32:31.21" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{D86AB512-0C81-4FC3-9724-E0B0B35C6675}">
+    <text>TSIV or RSIV</text>
+  </threadedComment>
+  <threadedComment ref="E113" dT="2025-04-24T01:34:26.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{2740E655-C4B8-4A82-BEAB-30DCAD0D8327}">
+    <text>ISKNV and TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E115" dT="2025-04-24T01:39:39.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{092D71B2-2F5E-4888-88BB-EF17F5E44EF6}">
+    <text>TSIV</text>
+  </threadedComment>
+  <threadedComment ref="E116" dT="2025-04-24T01:40:10.45" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0F92A923-18B6-4906-8411-8625F182B144}">
+    <text>TSIV, SDDV</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-  <dimension ref="A1:K116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,16 +1161,15 @@
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -832,22 +1189,19 @@
         <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -860,17 +1214,26 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -883,17 +1246,26 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>1</v>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -906,17 +1278,26 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>2</v>
       </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -929,17 +1310,26 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>3</v>
       </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -952,17 +1342,26 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>4</v>
       </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -975,17 +1374,26 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>5</v>
       </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -998,17 +1406,26 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>6</v>
       </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
       <c r="J8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1021,17 +1438,26 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1044,17 +1470,26 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>8</v>
       </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1067,17 +1502,26 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>9</v>
       </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1090,17 +1534,26 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>10</v>
       </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1113,17 +1566,26 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
         <v>11</v>
       </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1136,17 +1598,26 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
         <v>12</v>
       </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1159,17 +1630,26 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>13</v>
       </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
       <c r="J15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1182,14 +1662,23 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>14</v>
       </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1205,14 +1694,23 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>15</v>
       </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1228,11 +1726,20 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>16</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1251,11 +1758,20 @@
       <c r="D19" t="s">
         <v>17</v>
       </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>17</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -1274,11 +1790,20 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
         <v>18</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -1297,11 +1822,20 @@
       <c r="D21" t="s">
         <v>19</v>
       </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
         <v>19</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -1320,11 +1854,20 @@
       <c r="D22" t="s">
         <v>20</v>
       </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
         <v>20</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -1343,11 +1886,20 @@
       <c r="D23" t="s">
         <v>21</v>
       </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
         <v>21</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -1366,11 +1918,20 @@
       <c r="D24" t="s">
         <v>22</v>
       </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
         <v>22</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -1389,11 +1950,20 @@
       <c r="D25" t="s">
         <v>23</v>
       </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
         <v>23</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -1412,11 +1982,20 @@
       <c r="D26" t="s">
         <v>24</v>
       </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
         <v>24</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -1435,11 +2014,20 @@
       <c r="D27" t="s">
         <v>25</v>
       </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
         <v>25</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -1458,14 +2046,23 @@
       <c r="D28" t="s">
         <v>26</v>
       </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s">
         <v>26</v>
       </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
       <c r="J28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1481,14 +2078,23 @@
       <c r="D29" t="s">
         <v>27</v>
       </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s">
         <v>27</v>
       </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
       <c r="J29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1504,14 +2110,23 @@
       <c r="D30" t="s">
         <v>28</v>
       </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>28</v>
       </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1527,14 +2142,23 @@
       <c r="D31" t="s">
         <v>29</v>
       </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s">
         <v>29</v>
       </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1550,165 +2174,273 @@
       <c r="D32" t="s">
         <v>30</v>
       </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32" t="s">
         <v>30</v>
       </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>31</v>
       </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s">
         <v>31</v>
       </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
       <c r="J33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>32</v>
       </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
         <v>32</v>
       </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
       <c r="J34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>33</v>
       </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G35" t="s">
         <v>33</v>
       </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>34</v>
       </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s">
         <v>34</v>
       </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
       <c r="J36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>35</v>
       </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s">
         <v>35</v>
       </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>36</v>
       </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s">
         <v>36</v>
       </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>37</v>
       </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s">
         <v>37</v>
       </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>38</v>
       </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G40" t="s">
         <v>38</v>
       </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
       <c r="J40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>39</v>
       </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s">
         <v>39</v>
       </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
       <c r="J41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>40</v>
       </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42" t="s">
         <v>40</v>
       </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
       <c r="J42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>41</v>
       </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s">
         <v>41</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
@@ -1718,11 +2450,20 @@
       <c r="D44" t="s">
         <v>42</v>
       </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G44" t="s">
         <v>42</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
       </c>
       <c r="J44" t="b">
         <v>0</v>
@@ -1732,67 +2473,112 @@
       <c r="D45" t="s">
         <v>43</v>
       </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45" t="s">
         <v>43</v>
       </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
       <c r="J45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>44</v>
       </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
       <c r="F46" t="b">
         <v>1</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s">
         <v>44</v>
       </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
       <c r="J46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>45</v>
       </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s">
         <v>45</v>
       </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
       <c r="J47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>46</v>
       </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s">
         <v>46</v>
       </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
       <c r="J48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>47</v>
       </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s">
         <v>47</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -1802,11 +2588,20 @@
       <c r="D50" t="s">
         <v>48</v>
       </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
-      <c r="H50" t="s">
+      <c r="G50" t="s">
         <v>48</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -1816,11 +2611,20 @@
       <c r="D51" t="s">
         <v>49</v>
       </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
-      <c r="H51" t="s">
+      <c r="G51" t="s">
         <v>49</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
@@ -1830,11 +2634,20 @@
       <c r="D52" t="s">
         <v>50</v>
       </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s">
         <v>50</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
@@ -1844,11 +2657,20 @@
       <c r="D53" t="s">
         <v>51</v>
       </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
-      <c r="H53" t="s">
+      <c r="G53" t="s">
         <v>51</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
@@ -1858,53 +2680,89 @@
       <c r="D54" t="s">
         <v>52</v>
       </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54" t="s">
         <v>52</v>
       </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
       <c r="J54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>53</v>
       </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55" t="s">
         <v>53</v>
       </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
       <c r="J55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>54</v>
       </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
       <c r="F56" t="b">
         <v>1</v>
       </c>
-      <c r="H56" t="s">
+      <c r="G56" t="s">
         <v>54</v>
       </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
       <c r="J56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>55</v>
       </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s">
         <v>55</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
@@ -1914,11 +2772,20 @@
       <c r="D58" t="s">
         <v>56</v>
       </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
-      <c r="H58" t="s">
+      <c r="G58" t="s">
         <v>56</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
@@ -1928,11 +2795,20 @@
       <c r="D59" t="s">
         <v>57</v>
       </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s">
         <v>57</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
@@ -1942,25 +2818,43 @@
       <c r="D60" t="s">
         <v>58</v>
       </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
       <c r="F60" t="b">
         <v>1</v>
       </c>
-      <c r="H60" t="s">
+      <c r="G60" t="s">
         <v>58</v>
       </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
       <c r="J60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>59</v>
       </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G61" t="s">
         <v>59</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
@@ -1970,11 +2864,20 @@
       <c r="D62" t="s">
         <v>60</v>
       </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62" t="s">
         <v>60</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
@@ -1984,11 +2887,20 @@
       <c r="D63" t="s">
         <v>61</v>
       </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G63" t="s">
         <v>61</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
       </c>
       <c r="J63" t="b">
         <v>0</v>
@@ -1998,11 +2910,20 @@
       <c r="D64" t="s">
         <v>62</v>
       </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
-      <c r="H64" t="s">
+      <c r="G64" t="s">
         <v>62</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
       </c>
       <c r="J64" t="b">
         <v>0</v>
@@ -2012,11 +2933,20 @@
       <c r="D65" t="s">
         <v>63</v>
       </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
-      <c r="H65" t="s">
+      <c r="G65" t="s">
         <v>63</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
       </c>
       <c r="J65" t="b">
         <v>0</v>
@@ -2026,11 +2956,20 @@
       <c r="D66" t="s">
         <v>64</v>
       </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
-      <c r="H66" t="s">
+      <c r="G66" t="s">
         <v>64</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
       </c>
       <c r="J66" t="b">
         <v>0</v>
@@ -2040,11 +2979,20 @@
       <c r="D67" t="s">
         <v>65</v>
       </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
-      <c r="H67" t="s">
+      <c r="G67" t="s">
         <v>65</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
       </c>
       <c r="J67" t="b">
         <v>0</v>
@@ -2054,11 +3002,20 @@
       <c r="D68" t="s">
         <v>66</v>
       </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
-      <c r="H68" t="s">
+      <c r="G68" t="s">
         <v>66</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
       </c>
       <c r="J68" t="b">
         <v>0</v>
@@ -2068,11 +3025,20 @@
       <c r="D69" t="s">
         <v>67</v>
       </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
-      <c r="H69" t="s">
+      <c r="G69" t="s">
         <v>67</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
       </c>
       <c r="J69" t="b">
         <v>0</v>
@@ -2082,11 +3048,20 @@
       <c r="D70" t="s">
         <v>68</v>
       </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
-      <c r="H70" t="s">
+      <c r="G70" t="s">
         <v>68</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
       </c>
       <c r="J70" t="b">
         <v>0</v>
@@ -2096,11 +3071,20 @@
       <c r="D71" t="s">
         <v>69</v>
       </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
-      <c r="H71" t="s">
+      <c r="G71" t="s">
         <v>69</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
       </c>
       <c r="J71" t="b">
         <v>0</v>
@@ -2110,11 +3094,20 @@
       <c r="D72" t="s">
         <v>70</v>
       </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
-      <c r="H72" t="s">
+      <c r="G72" t="s">
         <v>70</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
       </c>
       <c r="J72" t="b">
         <v>0</v>
@@ -2124,11 +3117,20 @@
       <c r="D73" t="s">
         <v>71</v>
       </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
-      <c r="H73" t="s">
+      <c r="G73" t="s">
         <v>71</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
       </c>
       <c r="J73" t="b">
         <v>0</v>
@@ -2138,11 +3140,20 @@
       <c r="D74" t="s">
         <v>72</v>
       </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
-      <c r="H74" t="s">
+      <c r="G74" t="s">
         <v>72</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
       </c>
       <c r="J74" t="b">
         <v>0</v>
@@ -2152,11 +3163,20 @@
       <c r="D75" t="s">
         <v>73</v>
       </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
-      <c r="H75" t="s">
+      <c r="G75" t="s">
         <v>73</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
       </c>
       <c r="J75" t="b">
         <v>0</v>
@@ -2166,11 +3186,20 @@
       <c r="D76" t="s">
         <v>74</v>
       </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
-      <c r="H76" t="s">
+      <c r="G76" t="s">
         <v>74</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
       </c>
       <c r="J76" t="b">
         <v>0</v>
@@ -2180,11 +3209,20 @@
       <c r="D77" t="s">
         <v>75</v>
       </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
-      <c r="H77" t="s">
+      <c r="G77" t="s">
         <v>75</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
       </c>
       <c r="J77" t="b">
         <v>0</v>
@@ -2194,11 +3232,20 @@
       <c r="D78" t="s">
         <v>76</v>
       </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
-      <c r="H78" t="s">
+      <c r="G78" t="s">
         <v>76</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
       </c>
       <c r="J78" t="b">
         <v>0</v>
@@ -2208,11 +3255,20 @@
       <c r="D79" t="s">
         <v>77</v>
       </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
-      <c r="H79" t="s">
+      <c r="G79" t="s">
         <v>77</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
       </c>
       <c r="J79" t="b">
         <v>0</v>
@@ -2222,11 +3278,20 @@
       <c r="D80" t="s">
         <v>78</v>
       </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
-      <c r="H80" t="s">
+      <c r="G80" t="s">
         <v>78</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
       </c>
       <c r="J80" t="b">
         <v>0</v>
@@ -2236,11 +3301,20 @@
       <c r="D81" t="s">
         <v>79</v>
       </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
-      <c r="H81" t="s">
+      <c r="G81" t="s">
         <v>79</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
       </c>
       <c r="J81" t="b">
         <v>0</v>
@@ -2250,11 +3324,20 @@
       <c r="D82" t="s">
         <v>80</v>
       </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
-      <c r="H82" t="s">
+      <c r="G82" t="s">
         <v>80</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
       </c>
       <c r="J82" t="b">
         <v>0</v>
@@ -2264,39 +3347,66 @@
       <c r="D83" t="s">
         <v>81</v>
       </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
-      <c r="H83" t="s">
+      <c r="G83" t="s">
         <v>81</v>
       </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
-      <c r="H84" t="s">
+      <c r="G84" t="s">
         <v>82</v>
       </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
       <c r="J84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>83</v>
       </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
-      <c r="H85" t="s">
+      <c r="G85" t="s">
         <v>83</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
       </c>
       <c r="J85" t="b">
         <v>0</v>
@@ -2306,11 +3416,20 @@
       <c r="D86" t="s">
         <v>84</v>
       </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
-      <c r="H86" t="s">
+      <c r="G86" t="s">
         <v>84</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
       </c>
       <c r="J86" t="b">
         <v>0</v>
@@ -2320,11 +3439,20 @@
       <c r="D87" t="s">
         <v>85</v>
       </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
-      <c r="H87" t="s">
+      <c r="G87" t="s">
         <v>85</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
       </c>
       <c r="J87" t="b">
         <v>0</v>
@@ -2334,11 +3462,20 @@
       <c r="D88" t="s">
         <v>86</v>
       </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
-      <c r="H88" t="s">
+      <c r="G88" t="s">
         <v>86</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
       </c>
       <c r="J88" t="b">
         <v>0</v>
@@ -2348,25 +3485,43 @@
       <c r="D89" t="s">
         <v>87</v>
       </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
-      <c r="H89" t="s">
+      <c r="G89" t="s">
         <v>87</v>
       </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
       <c r="J89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>88</v>
       </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
-      <c r="H90" t="s">
+      <c r="G90" t="s">
         <v>88</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
       </c>
       <c r="J90" t="b">
         <v>0</v>
@@ -2376,11 +3531,20 @@
       <c r="D91" t="s">
         <v>89</v>
       </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
-      <c r="H91" t="s">
+      <c r="G91" t="s">
         <v>89</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
       </c>
       <c r="J91" t="b">
         <v>0</v>
@@ -2390,11 +3554,20 @@
       <c r="D92" t="s">
         <v>90</v>
       </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
-      <c r="H92" t="s">
+      <c r="G92" t="s">
         <v>90</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
       </c>
       <c r="J92" t="b">
         <v>0</v>
@@ -2404,25 +3577,43 @@
       <c r="D93" t="s">
         <v>91</v>
       </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
-      <c r="H93" t="s">
+      <c r="G93" t="s">
         <v>91</v>
       </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
       <c r="J93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>92</v>
       </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
-      <c r="H94" t="s">
+      <c r="G94" t="s">
         <v>92</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
       </c>
       <c r="J94" t="b">
         <v>0</v>
@@ -2432,11 +3623,20 @@
       <c r="D95" t="s">
         <v>93</v>
       </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
-      <c r="H95" t="s">
+      <c r="G95" t="s">
         <v>93</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
       </c>
       <c r="J95" t="b">
         <v>0</v>
@@ -2446,53 +3646,89 @@
       <c r="D96" t="s">
         <v>94</v>
       </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
-      <c r="H96" t="s">
+      <c r="G96" t="s">
         <v>94</v>
       </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
       <c r="J96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>95</v>
       </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
-      <c r="H97" t="s">
+      <c r="G97" t="s">
         <v>95</v>
       </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
       <c r="J97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>96</v>
       </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
-      <c r="H98" t="s">
+      <c r="G98" t="s">
         <v>96</v>
       </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
       <c r="J98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>97</v>
       </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
-      <c r="H99" t="s">
+      <c r="G99" t="s">
         <v>97</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
       </c>
       <c r="J99" t="b">
         <v>0</v>
@@ -2502,11 +3738,20 @@
       <c r="D100" t="s">
         <v>98</v>
       </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
-      <c r="H100" t="s">
+      <c r="G100" t="s">
         <v>98</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
       </c>
       <c r="J100" t="b">
         <v>0</v>
@@ -2516,39 +3761,66 @@
       <c r="D101" t="s">
         <v>99</v>
       </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
-      <c r="H101" t="s">
+      <c r="G101" t="s">
         <v>99</v>
       </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
       <c r="J101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>100</v>
       </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
-      <c r="H102" t="s">
+      <c r="G102" t="s">
         <v>100</v>
       </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
       <c r="J102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>101</v>
       </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
-      <c r="H103" t="s">
+      <c r="G103" t="s">
         <v>101</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
       </c>
       <c r="J103" t="b">
         <v>0</v>
@@ -2558,11 +3830,20 @@
       <c r="D104" t="s">
         <v>102</v>
       </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
       <c r="F104" t="b">
         <v>0</v>
       </c>
-      <c r="H104" t="s">
+      <c r="G104" t="s">
         <v>102</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
       </c>
       <c r="J104" t="b">
         <v>0</v>
@@ -2572,11 +3853,20 @@
       <c r="D105" t="s">
         <v>103</v>
       </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
-      <c r="H105" t="s">
+      <c r="G105" t="s">
         <v>103</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
       </c>
       <c r="J105" t="b">
         <v>0</v>
@@ -2586,53 +3876,89 @@
       <c r="D106" t="s">
         <v>104</v>
       </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
-      <c r="H106" t="s">
+      <c r="G106" t="s">
         <v>104</v>
       </c>
+      <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
       <c r="J106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>105</v>
       </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
-      <c r="H107" t="s">
+      <c r="G107" t="s">
         <v>105</v>
       </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
       <c r="J107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
         <v>106</v>
       </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
-      <c r="H108" t="s">
+      <c r="G108" t="s">
         <v>106</v>
       </c>
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
       <c r="J108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>107</v>
       </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
-      <c r="H109" t="s">
+      <c r="G109" t="s">
         <v>107</v>
+      </c>
+      <c r="H109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
       </c>
       <c r="J109" t="b">
         <v>0</v>
@@ -2642,25 +3968,43 @@
       <c r="D110" t="s">
         <v>108</v>
       </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
-      <c r="H110" t="s">
+      <c r="G110" t="s">
         <v>108</v>
       </c>
+      <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
       <c r="J110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>109</v>
       </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
-      <c r="H111" t="s">
+      <c r="G111" t="s">
         <v>109</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
       </c>
       <c r="J111" t="b">
         <v>0</v>
@@ -2670,11 +4014,20 @@
       <c r="D112" t="s">
         <v>110</v>
       </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
-      <c r="H112" t="s">
+      <c r="G112" t="s">
         <v>110</v>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="b">
+        <v>0</v>
       </c>
       <c r="J112" t="b">
         <v>0</v>
@@ -2684,11 +4037,20 @@
       <c r="D113" t="s">
         <v>111</v>
       </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
-      <c r="H113" t="s">
+      <c r="G113" t="s">
         <v>111</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
       </c>
       <c r="J113" t="b">
         <v>0</v>
@@ -2698,46 +4060,93 @@
       <c r="D114" t="s">
         <v>112</v>
       </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
-      <c r="H114" t="s">
+      <c r="G114" t="s">
         <v>112</v>
       </c>
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
       <c r="J114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>113</v>
       </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
-      <c r="H115" t="s">
+      <c r="G115" t="s">
         <v>113</v>
       </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
       <c r="J115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>114</v>
       </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
       <c r="F116" t="b">
         <v>1</v>
       </c>
-      <c r="H116" t="s">
+      <c r="G116" t="s">
         <v>114</v>
       </c>
+      <c r="H116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
       <c r="J116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:F116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B1:C1048576">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1048576 H2:H116">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J116">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="643" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F9B9B16-2D3B-4CC7-8149-3DDF01EAD5DD}"/>
+  <xr:revisionPtr revIDLastSave="644" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E308891-B3F7-4694-ADE3-513EBF497D0C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="13150" yWindow="1980" windowWidth="19760" windowHeight="15370" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,12 +618,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -652,46 +646,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -716,26 +679,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1153,23 +1096,23 @@
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -1201,7 +1144,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1265,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1297,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1425,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1457,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1553,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1649,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1681,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1713,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1745,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1777,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1809,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1841,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1873,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1937,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1969,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2001,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2033,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2065,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2097,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2129,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2161,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -2193,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>31</v>
       </c>
@@ -2216,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>32</v>
       </c>
@@ -2239,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>33</v>
       </c>
@@ -2262,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>34</v>
       </c>
@@ -2285,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>35</v>
       </c>
@@ -2308,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>36</v>
       </c>
@@ -2331,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>37</v>
       </c>
@@ -2354,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>38</v>
       </c>
@@ -2377,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>39</v>
       </c>
@@ -2400,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>40</v>
       </c>
@@ -2423,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>41</v>
       </c>
@@ -2446,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>42</v>
       </c>
@@ -2469,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>43</v>
       </c>
@@ -2492,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>44</v>
       </c>
@@ -2515,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>45</v>
       </c>
@@ -2538,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
         <v>46</v>
       </c>
@@ -2561,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>47</v>
       </c>
@@ -2584,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>48</v>
       </c>
@@ -2607,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D51" t="s">
         <v>49</v>
       </c>
@@ -2630,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
         <v>50</v>
       </c>
@@ -2653,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>51</v>
       </c>
@@ -2676,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
         <v>52</v>
       </c>
@@ -2699,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
         <v>53</v>
       </c>
@@ -2722,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
         <v>54</v>
       </c>
@@ -2745,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>55</v>
       </c>
@@ -2768,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>56</v>
       </c>
@@ -2791,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D59" t="s">
         <v>57</v>
       </c>
@@ -2814,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
         <v>58</v>
       </c>
@@ -2837,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D61" t="s">
         <v>59</v>
       </c>
@@ -2860,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
         <v>60</v>
       </c>
@@ -2883,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D63" t="s">
         <v>61</v>
       </c>
@@ -2906,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D64" t="s">
         <v>62</v>
       </c>
@@ -2929,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
         <v>63</v>
       </c>
@@ -2952,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D66" t="s">
         <v>64</v>
       </c>
@@ -2975,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
         <v>65</v>
       </c>
@@ -2998,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
         <v>66</v>
       </c>
@@ -3021,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
         <v>67</v>
       </c>
@@ -3044,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
         <v>68</v>
       </c>
@@ -3067,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D71" t="s">
         <v>69</v>
       </c>
@@ -3090,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
         <v>70</v>
       </c>
@@ -3113,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D73" t="s">
         <v>71</v>
       </c>
@@ -3136,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D74" t="s">
         <v>72</v>
       </c>
@@ -3159,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D75" t="s">
         <v>73</v>
       </c>
@@ -3182,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D76" t="s">
         <v>74</v>
       </c>
@@ -3205,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D77" t="s">
         <v>75</v>
       </c>
@@ -3228,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
         <v>76</v>
       </c>
@@ -3251,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D79" t="s">
         <v>77</v>
       </c>
@@ -3274,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D80" t="s">
         <v>78</v>
       </c>
@@ -3297,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D81" t="s">
         <v>79</v>
       </c>
@@ -3320,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
         <v>80</v>
       </c>
@@ -3343,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D83" t="s">
         <v>81</v>
       </c>
@@ -3366,8 +3309,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="3" t="s">
+    <row r="84" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D84" t="s">
         <v>82</v>
       </c>
       <c r="E84" t="b">
@@ -3389,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D85" t="s">
         <v>83</v>
       </c>
@@ -3412,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D86" t="s">
         <v>84</v>
       </c>
@@ -3435,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D87" t="s">
         <v>85</v>
       </c>
@@ -3458,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D88" t="s">
         <v>86</v>
       </c>
@@ -3481,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D89" t="s">
         <v>87</v>
       </c>
@@ -3504,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D90" t="s">
         <v>88</v>
       </c>
@@ -3527,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D91" t="s">
         <v>89</v>
       </c>
@@ -3550,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D92" t="s">
         <v>90</v>
       </c>
@@ -3573,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D93" t="s">
         <v>91</v>
       </c>
@@ -3596,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D94" t="s">
         <v>92</v>
       </c>
@@ -3619,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D95" t="s">
         <v>93</v>
       </c>
@@ -3642,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D96" t="s">
         <v>94</v>
       </c>
@@ -3665,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D97" t="s">
         <v>95</v>
       </c>
@@ -3688,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D98" t="s">
         <v>96</v>
       </c>
@@ -3711,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D99" t="s">
         <v>97</v>
       </c>
@@ -3734,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D100" t="s">
         <v>98</v>
       </c>
@@ -3757,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D101" t="s">
         <v>99</v>
       </c>
@@ -3780,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D102" t="s">
         <v>100</v>
       </c>
@@ -3803,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D103" t="s">
         <v>101</v>
       </c>
@@ -3826,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D104" t="s">
         <v>102</v>
       </c>
@@ -3849,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D105" t="s">
         <v>103</v>
       </c>
@@ -3872,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D106" t="s">
         <v>104</v>
       </c>
@@ -3895,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D107" t="s">
         <v>105</v>
       </c>
@@ -3918,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D108" t="s">
         <v>106</v>
       </c>
@@ -3941,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D109" t="s">
         <v>107</v>
       </c>
@@ -3964,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D110" t="s">
         <v>108</v>
       </c>
@@ -3987,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D111" t="s">
         <v>109</v>
       </c>
@@ -4010,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D112" t="s">
         <v>110</v>
       </c>
@@ -4033,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D113" t="s">
         <v>111</v>
       </c>
@@ -4056,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D114" t="s">
         <v>112</v>
       </c>
@@ -4079,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D115" t="s">
         <v>113</v>
       </c>
@@ -4102,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D116" t="s">
         <v>114</v>
       </c>
@@ -4129,15 +4072,15 @@
   <autoFilter ref="D1:F116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1048576 H2:H116">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E308891-B3F7-4694-ADE3-513EBF497D0C}"/>
+  <xr:revisionPtr revIDLastSave="796" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F7BFB4-DE56-48F3-A806-76837DA36681}"/>
   <bookViews>
-    <workbookView xWindow="13150" yWindow="1980" windowWidth="19760" windowHeight="15370" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$F$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$G$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$B$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,6 +55,7 @@
     <author>tc={B35CAB75-546F-45E9-9954-4C8A11A29590}</author>
     <author>tc={83BB326C-8A37-4FEF-94D7-6CD6AC88E587}</author>
     <author>tc={962D91F9-D259-4EAC-AAF4-3BE2677CA376}</author>
+    <author>tc={8161B9CE-E997-40FC-9756-1B3F80AA3811}</author>
     <author>tc={1AE0F2D7-1F6F-40A1-A212-52C8D33FFF0D}</author>
     <author>tc={3C6F5A1B-BD7A-47B4-B88D-D72B5EF1D4BD}</author>
     <author>tc={775D52E0-5C93-4BDD-8B1B-C3270CD88D0B}</author>
@@ -63,7 +66,7 @@
     <author>tc={0F92A923-18B6-4906-8411-8625F182B144}</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{0AFB43E9-6C67-4A5C-8149-003C166BBE15}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{0AFB43E9-6C67-4A5C-8149-003C166BBE15}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +74,7 @@
     ISKNV</t>
       </text>
     </comment>
-    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{9A3AB837-42E6-490C-BBB6-E33BFDC4F4A7}">
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{9A3AB837-42E6-490C-BBB6-E33BFDC4F4A7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +82,7 @@
     TSIV</t>
       </text>
     </comment>
-    <comment ref="E10" authorId="2" shapeId="0" xr:uid="{9C07D3C4-1C42-4ED4-A0A6-BAC7A2382877}">
+    <comment ref="F10" authorId="2" shapeId="0" xr:uid="{9C07D3C4-1C42-4ED4-A0A6-BAC7A2382877}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -87,7 +90,7 @@
     TSIV</t>
       </text>
     </comment>
-    <comment ref="E20" authorId="3" shapeId="0" xr:uid="{68A2920C-225B-4A03-9C84-6B994EEA813E}">
+    <comment ref="F20" authorId="3" shapeId="0" xr:uid="{68A2920C-225B-4A03-9C84-6B994EEA813E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -95,7 +98,7 @@
     TRBIV or TSIV</t>
       </text>
     </comment>
-    <comment ref="E29" authorId="4" shapeId="0" xr:uid="{25C6B889-74E2-489E-99AF-BA6556EEBA52}">
+    <comment ref="F29" authorId="4" shapeId="0" xr:uid="{25C6B889-74E2-489E-99AF-BA6556EEBA52}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +106,7 @@
     TSIV, TRBIV, maybe SDDV</t>
       </text>
     </comment>
-    <comment ref="E48" authorId="5" shapeId="0" xr:uid="{DE3C649B-059E-441C-B972-EBAF9EBFF424}">
+    <comment ref="F48" authorId="5" shapeId="0" xr:uid="{DE3C649B-059E-441C-B972-EBAF9EBFF424}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -111,7 +114,7 @@
     TSIV or TRBIV</t>
       </text>
     </comment>
-    <comment ref="E59" authorId="6" shapeId="0" xr:uid="{0B788EB9-3DE1-4831-AA75-C67C2562597A}">
+    <comment ref="F59" authorId="6" shapeId="0" xr:uid="{0B788EB9-3DE1-4831-AA75-C67C2562597A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +122,7 @@
     TSIV</t>
       </text>
     </comment>
-    <comment ref="E66" authorId="7" shapeId="0" xr:uid="{CD504131-FC5A-442A-8D52-93E56956360B}">
+    <comment ref="F66" authorId="7" shapeId="0" xr:uid="{CD504131-FC5A-442A-8D52-93E56956360B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +130,7 @@
     TRBIV</t>
       </text>
     </comment>
-    <comment ref="E69" authorId="8" shapeId="0" xr:uid="{72F66FC8-83B7-4860-A48C-18B72149FF90}">
+    <comment ref="F69" authorId="8" shapeId="0" xr:uid="{72F66FC8-83B7-4860-A48C-18B72149FF90}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -135,7 +138,7 @@
     ISKNV or TSIV</t>
       </text>
     </comment>
-    <comment ref="E72" authorId="9" shapeId="0" xr:uid="{B35CAB75-546F-45E9-9954-4C8A11A29590}">
+    <comment ref="F72" authorId="9" shapeId="0" xr:uid="{B35CAB75-546F-45E9-9954-4C8A11A29590}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -143,7 +146,7 @@
     TRBIV and TSIV</t>
       </text>
     </comment>
-    <comment ref="E85" authorId="10" shapeId="0" xr:uid="{83BB326C-8A37-4FEF-94D7-6CD6AC88E587}">
+    <comment ref="F85" authorId="10" shapeId="0" xr:uid="{83BB326C-8A37-4FEF-94D7-6CD6AC88E587}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -151,7 +154,7 @@
     ISKNV and TSIV</t>
       </text>
     </comment>
-    <comment ref="E87" authorId="11" shapeId="0" xr:uid="{962D91F9-D259-4EAC-AAF4-3BE2677CA376}">
+    <comment ref="F87" authorId="11" shapeId="0" xr:uid="{962D91F9-D259-4EAC-AAF4-3BE2677CA376}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +162,7 @@
     ISKNV and SDDV</t>
       </text>
     </comment>
-    <comment ref="E90" authorId="12" shapeId="0" xr:uid="{1AE0F2D7-1F6F-40A1-A212-52C8D33FFF0D}">
+    <comment ref="F89" authorId="12" shapeId="0" xr:uid="{8161B9CE-E997-40FC-9756-1B3F80AA3811}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +170,15 @@
     ISKNV and TSIV</t>
       </text>
     </comment>
-    <comment ref="E92" authorId="13" shapeId="0" xr:uid="{3C6F5A1B-BD7A-47B4-B88D-D72B5EF1D4BD}">
+    <comment ref="F90" authorId="13" shapeId="0" xr:uid="{1AE0F2D7-1F6F-40A1-A212-52C8D33FFF0D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ISKNV and TSIV</t>
+      </text>
+    </comment>
+    <comment ref="F92" authorId="14" shapeId="0" xr:uid="{3C6F5A1B-BD7A-47B4-B88D-D72B5EF1D4BD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +186,7 @@
     TRBIV and TSIV</t>
       </text>
     </comment>
-    <comment ref="E93" authorId="14" shapeId="0" xr:uid="{775D52E0-5C93-4BDD-8B1B-C3270CD88D0B}">
+    <comment ref="F93" authorId="15" shapeId="0" xr:uid="{775D52E0-5C93-4BDD-8B1B-C3270CD88D0B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +194,7 @@
     TSIV, ISKNV</t>
       </text>
     </comment>
-    <comment ref="E100" authorId="15" shapeId="0" xr:uid="{AC935F55-BFF2-4258-8A91-9A8B36A02DFB}">
+    <comment ref="F100" authorId="16" shapeId="0" xr:uid="{AC935F55-BFF2-4258-8A91-9A8B36A02DFB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +202,7 @@
     ISKNV or TSIV</t>
       </text>
     </comment>
-    <comment ref="E110" authorId="16" shapeId="0" xr:uid="{D86AB512-0C81-4FC3-9724-E0B0B35C6675}">
+    <comment ref="F110" authorId="17" shapeId="0" xr:uid="{D86AB512-0C81-4FC3-9724-E0B0B35C6675}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -199,7 +210,7 @@
     TSIV or RSIV</t>
       </text>
     </comment>
-    <comment ref="E113" authorId="17" shapeId="0" xr:uid="{2740E655-C4B8-4A82-BEAB-30DCAD0D8327}">
+    <comment ref="F113" authorId="18" shapeId="0" xr:uid="{2740E655-C4B8-4A82-BEAB-30DCAD0D8327}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -207,7 +218,7 @@
     ISKNV and TSIV</t>
       </text>
     </comment>
-    <comment ref="E115" authorId="18" shapeId="0" xr:uid="{092D71B2-2F5E-4888-88BB-EF17F5E44EF6}">
+    <comment ref="F115" authorId="19" shapeId="0" xr:uid="{092D71B2-2F5E-4888-88BB-EF17F5E44EF6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -215,7 +226,7 @@
     TSIV</t>
       </text>
     </comment>
-    <comment ref="E116" authorId="19" shapeId="0" xr:uid="{0F92A923-18B6-4906-8411-8625F182B144}">
+    <comment ref="F116" authorId="20" shapeId="0" xr:uid="{0F92A923-18B6-4906-8411-8625F182B144}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -228,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="121">
   <si>
     <t>OG0000000</t>
   </si>
@@ -597,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,8 +630,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,7 +646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,15 +669,114 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1028,64 +1150,67 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H3" dT="2025-04-24T03:58:20.96" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0AFB43E9-6C67-4A5C-8149-003C166BBE15}">
+  <threadedComment ref="J3" dT="2025-04-24T03:58:20.96" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0AFB43E9-6C67-4A5C-8149-003C166BBE15}">
     <text>ISKNV</text>
   </threadedComment>
-  <threadedComment ref="E7" dT="2025-04-23T23:55:22.85" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{9A3AB837-42E6-490C-BBB6-E33BFDC4F4A7}">
+  <threadedComment ref="F7" dT="2025-04-23T23:55:22.85" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{9A3AB837-42E6-490C-BBB6-E33BFDC4F4A7}">
     <text>TSIV</text>
   </threadedComment>
-  <threadedComment ref="E10" dT="2025-04-23T23:57:17.05" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{9C07D3C4-1C42-4ED4-A0A6-BAC7A2382877}">
+  <threadedComment ref="F10" dT="2025-04-23T23:57:17.05" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{9C07D3C4-1C42-4ED4-A0A6-BAC7A2382877}">
     <text>TSIV</text>
   </threadedComment>
-  <threadedComment ref="E20" dT="2025-04-24T00:04:17.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{68A2920C-225B-4A03-9C84-6B994EEA813E}">
+  <threadedComment ref="F20" dT="2025-04-24T00:04:17.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{68A2920C-225B-4A03-9C84-6B994EEA813E}">
     <text>TRBIV or TSIV</text>
   </threadedComment>
-  <threadedComment ref="E29" dT="2025-04-24T00:13:11.75" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{25C6B889-74E2-489E-99AF-BA6556EEBA52}">
+  <threadedComment ref="F29" dT="2025-04-24T00:13:11.75" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{25C6B889-74E2-489E-99AF-BA6556EEBA52}">
     <text>TSIV, TRBIV, maybe SDDV</text>
   </threadedComment>
-  <threadedComment ref="E48" dT="2025-04-24T00:27:26.36" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{DE3C649B-059E-441C-B972-EBAF9EBFF424}">
+  <threadedComment ref="F48" dT="2025-04-24T00:27:26.36" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{DE3C649B-059E-441C-B972-EBAF9EBFF424}">
     <text>TSIV or TRBIV</text>
   </threadedComment>
-  <threadedComment ref="E59" dT="2025-04-24T00:35:42.72" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0B788EB9-3DE1-4831-AA75-C67C2562597A}">
+  <threadedComment ref="F59" dT="2025-04-24T00:35:42.72" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0B788EB9-3DE1-4831-AA75-C67C2562597A}">
     <text>TSIV</text>
   </threadedComment>
-  <threadedComment ref="E66" dT="2025-04-24T00:41:15.65" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{CD504131-FC5A-442A-8D52-93E56956360B}">
+  <threadedComment ref="F66" dT="2025-04-24T00:41:15.65" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{CD504131-FC5A-442A-8D52-93E56956360B}">
     <text>TRBIV</text>
   </threadedComment>
-  <threadedComment ref="E69" dT="2025-04-24T00:43:58.15" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{72F66FC8-83B7-4860-A48C-18B72149FF90}">
+  <threadedComment ref="F69" dT="2025-04-24T00:43:58.15" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{72F66FC8-83B7-4860-A48C-18B72149FF90}">
     <text>ISKNV or TSIV</text>
   </threadedComment>
-  <threadedComment ref="E72" dT="2025-04-24T00:52:26.30" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{B35CAB75-546F-45E9-9954-4C8A11A29590}">
+  <threadedComment ref="F72" dT="2025-04-24T00:52:26.30" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{B35CAB75-546F-45E9-9954-4C8A11A29590}">
     <text>TRBIV and TSIV</text>
   </threadedComment>
-  <threadedComment ref="E85" dT="2025-04-24T01:04:11.53" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{83BB326C-8A37-4FEF-94D7-6CD6AC88E587}">
+  <threadedComment ref="F85" dT="2025-04-24T01:04:11.53" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{83BB326C-8A37-4FEF-94D7-6CD6AC88E587}">
     <text>ISKNV and TSIV</text>
   </threadedComment>
-  <threadedComment ref="E87" dT="2025-04-24T01:05:16.59" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{962D91F9-D259-4EAC-AAF4-3BE2677CA376}">
+  <threadedComment ref="F87" dT="2025-04-24T01:05:16.59" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{962D91F9-D259-4EAC-AAF4-3BE2677CA376}">
     <text>ISKNV and SDDV</text>
   </threadedComment>
-  <threadedComment ref="E90" dT="2025-04-24T01:20:10.42" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{1AE0F2D7-1F6F-40A1-A212-52C8D33FFF0D}">
+  <threadedComment ref="F89" dT="2025-04-24T01:20:10.42" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{8161B9CE-E997-40FC-9756-1B3F80AA3811}">
     <text>ISKNV and TSIV</text>
   </threadedComment>
-  <threadedComment ref="E92" dT="2025-04-24T01:21:40.83" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{3C6F5A1B-BD7A-47B4-B88D-D72B5EF1D4BD}">
+  <threadedComment ref="F90" dT="2025-04-24T01:20:10.42" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{1AE0F2D7-1F6F-40A1-A212-52C8D33FFF0D}">
+    <text>ISKNV and TSIV</text>
+  </threadedComment>
+  <threadedComment ref="F92" dT="2025-04-24T01:21:40.83" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{3C6F5A1B-BD7A-47B4-B88D-D72B5EF1D4BD}">
     <text>TRBIV and TSIV</text>
   </threadedComment>
-  <threadedComment ref="E93" dT="2025-04-24T01:22:26.91" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{775D52E0-5C93-4BDD-8B1B-C3270CD88D0B}">
+  <threadedComment ref="F93" dT="2025-04-24T01:22:26.91" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{775D52E0-5C93-4BDD-8B1B-C3270CD88D0B}">
     <text>TSIV, ISKNV</text>
   </threadedComment>
-  <threadedComment ref="E100" dT="2025-04-24T01:27:14.73" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{AC935F55-BFF2-4258-8A91-9A8B36A02DFB}">
+  <threadedComment ref="F100" dT="2025-04-24T01:27:14.73" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{AC935F55-BFF2-4258-8A91-9A8B36A02DFB}">
     <text>ISKNV or TSIV</text>
   </threadedComment>
-  <threadedComment ref="E110" dT="2025-04-24T01:32:31.21" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{D86AB512-0C81-4FC3-9724-E0B0B35C6675}">
+  <threadedComment ref="F110" dT="2025-04-24T01:32:31.21" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{D86AB512-0C81-4FC3-9724-E0B0B35C6675}">
     <text>TSIV or RSIV</text>
   </threadedComment>
-  <threadedComment ref="E113" dT="2025-04-24T01:34:26.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{2740E655-C4B8-4A82-BEAB-30DCAD0D8327}">
+  <threadedComment ref="F113" dT="2025-04-24T01:34:26.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{2740E655-C4B8-4A82-BEAB-30DCAD0D8327}">
     <text>ISKNV and TSIV</text>
   </threadedComment>
-  <threadedComment ref="E115" dT="2025-04-24T01:39:39.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{092D71B2-2F5E-4888-88BB-EF17F5E44EF6}">
+  <threadedComment ref="F115" dT="2025-04-24T01:39:39.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{092D71B2-2F5E-4888-88BB-EF17F5E44EF6}">
     <text>TSIV</text>
   </threadedComment>
-  <threadedComment ref="E116" dT="2025-04-24T01:40:10.45" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0F92A923-18B6-4906-8411-8625F182B144}">
+  <threadedComment ref="F116" dT="2025-04-24T01:40:10.45" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0F92A923-18B6-4906-8411-8625F182B144}">
     <text>TSIV, SDDV</text>
   </threadedComment>
 </ThreadedComments>
@@ -1093,58 +1218,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="23.90625" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" customWidth="1"/>
-    <col min="10" max="10" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1154,29 +1286,35 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1186,29 +1324,35 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>1</v>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1218,29 +1362,35 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1250,29 +1400,35 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1282,29 +1438,35 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1314,29 +1476,35 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1346,29 +1514,35 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1378,29 +1552,35 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1410,29 +1590,35 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1442,29 +1628,35 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1474,29 +1666,35 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1506,29 +1704,35 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1538,29 +1742,35 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1570,29 +1780,35 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1602,29 +1818,35 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1634,29 +1856,35 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1666,29 +1894,35 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1698,29 +1932,35 @@
       <c r="C19" t="b">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1730,29 +1970,35 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1762,30 +2008,36 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="b">
@@ -1794,30 +2046,36 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="b">
@@ -1826,30 +2084,36 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="b">
@@ -1858,30 +2122,36 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
         <v>22</v>
       </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="b">
@@ -1890,30 +2160,36 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
         <v>23</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="b">
@@ -1922,30 +2198,36 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>24</v>
       </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
         <v>24</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="b">
@@ -1954,30 +2236,36 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
         <v>25</v>
       </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="b">
@@ -1986,30 +2274,36 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
       <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
         <v>26</v>
       </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="b">
@@ -2018,30 +2312,36 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
         <v>27</v>
       </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
         <v>27</v>
       </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="b">
@@ -2050,30 +2350,36 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>28</v>
       </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
         <v>28</v>
       </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="b">
@@ -2082,30 +2388,36 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
         <v>29</v>
       </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="b">
@@ -2114,1982 +2426,3197 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>30</v>
       </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
         <v>30</v>
       </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D33" t="s">
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="E33" t="s">
         <v>31</v>
       </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
         <v>31</v>
       </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="E34" t="s">
         <v>32</v>
       </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
         <v>32</v>
       </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D35" t="s">
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="E35" t="s">
         <v>33</v>
       </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
         <v>33</v>
       </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
         <v>34</v>
       </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D37" t="s">
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
         <v>35</v>
       </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
         <v>35</v>
       </c>
-      <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D38" t="s">
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
         <v>36</v>
       </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
       <c r="F38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
         <v>36</v>
       </c>
-      <c r="H38" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D39" t="s">
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
         <v>37</v>
       </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
         <v>37</v>
       </c>
-      <c r="H39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D40" t="s">
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
         <v>38</v>
       </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
         <v>38</v>
       </c>
-      <c r="H40" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D41" t="s">
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
         <v>39</v>
       </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
         <v>39</v>
       </c>
-      <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D42" t="s">
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
         <v>40</v>
       </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
         <v>40</v>
       </c>
-      <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D43" t="s">
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
         <v>41</v>
       </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
         <v>41</v>
       </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D44" t="s">
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
         <v>42</v>
       </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
         <v>42</v>
       </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D45" t="s">
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
         <v>43</v>
       </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
         <v>43</v>
       </c>
-      <c r="H45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D46" t="s">
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
         <v>44</v>
       </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
       <c r="F46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
         <v>44</v>
       </c>
-      <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D47" t="s">
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
         <v>45</v>
       </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
         <v>45</v>
       </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D48" t="s">
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
         <v>46</v>
       </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
         <v>46</v>
       </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D49" t="s">
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
         <v>47</v>
       </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
         <v>47</v>
       </c>
-      <c r="H49" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
         <v>48</v>
       </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
         <v>48</v>
       </c>
-      <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
         <v>49</v>
       </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
         <v>49</v>
       </c>
-      <c r="H51" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
         <v>50</v>
       </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
       <c r="F52" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
         <v>50</v>
       </c>
-      <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
         <v>51</v>
       </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
       <c r="F53" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
         <v>51</v>
       </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D54" t="s">
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
         <v>52</v>
       </c>
-      <c r="E54" t="b">
-        <v>0</v>
-      </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
         <v>52</v>
       </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
         <v>53</v>
       </c>
-      <c r="E55" t="b">
-        <v>0</v>
-      </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
         <v>53</v>
       </c>
-      <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D56" t="s">
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
         <v>54</v>
       </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
       <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
         <v>54</v>
       </c>
-      <c r="H56" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D57" t="s">
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
         <v>55</v>
       </c>
-      <c r="E57" t="b">
-        <v>0</v>
-      </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
         <v>55</v>
       </c>
-      <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
         <v>56</v>
       </c>
-      <c r="E58" t="b">
-        <v>0</v>
-      </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
         <v>56</v>
       </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D59" t="s">
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
         <v>57</v>
       </c>
-      <c r="E59" t="b">
-        <v>1</v>
-      </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
         <v>57</v>
       </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D60" t="s">
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
         <v>58</v>
       </c>
-      <c r="E60" t="b">
-        <v>0</v>
-      </c>
       <c r="F60" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
         <v>58</v>
       </c>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
         <v>59</v>
       </c>
-      <c r="E61" t="b">
-        <v>1</v>
-      </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
         <v>59</v>
       </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D62" t="s">
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
         <v>60</v>
       </c>
-      <c r="E62" t="b">
-        <v>0</v>
-      </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
         <v>60</v>
       </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D63" t="s">
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
         <v>61</v>
       </c>
-      <c r="E63" t="b">
-        <v>0</v>
-      </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
         <v>61</v>
       </c>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D64" t="s">
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
         <v>62</v>
       </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
         <v>62</v>
       </c>
-      <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D65" t="s">
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
         <v>63</v>
       </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
       <c r="F65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
         <v>63</v>
       </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D66" t="s">
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
         <v>64</v>
       </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
         <v>64</v>
       </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D67" t="s">
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
         <v>65</v>
       </c>
-      <c r="E67" t="b">
-        <v>1</v>
-      </c>
       <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
         <v>65</v>
       </c>
-      <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D68" t="s">
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
         <v>66</v>
       </c>
-      <c r="E68" t="b">
-        <v>0</v>
-      </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
         <v>66</v>
       </c>
-      <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D69" t="s">
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
         <v>67</v>
       </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
       <c r="F69" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
         <v>67</v>
       </c>
-      <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D70" t="s">
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
         <v>68</v>
       </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
       <c r="F70" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
         <v>68</v>
       </c>
-      <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D71" t="s">
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
         <v>69</v>
       </c>
-      <c r="E71" t="b">
-        <v>0</v>
-      </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
         <v>69</v>
       </c>
-      <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D72" t="s">
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
         <v>70</v>
       </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
       <c r="F72" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
         <v>70</v>
       </c>
-      <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D73" t="s">
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
         <v>71</v>
       </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
       <c r="F73" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
         <v>71</v>
       </c>
-      <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
         <v>72</v>
       </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
       <c r="F74" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
         <v>72</v>
       </c>
-      <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
         <v>73</v>
       </c>
-      <c r="E75" t="b">
-        <v>1</v>
-      </c>
       <c r="F75" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
         <v>73</v>
       </c>
-      <c r="H75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
         <v>74</v>
       </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
       <c r="F76" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
         <v>74</v>
       </c>
-      <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D77" t="s">
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
         <v>75</v>
       </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
       <c r="F77" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
         <v>75</v>
       </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D78" t="s">
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
         <v>76</v>
       </c>
-      <c r="E78" t="b">
-        <v>1</v>
-      </c>
       <c r="F78" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
         <v>76</v>
       </c>
-      <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
         <v>77</v>
       </c>
-      <c r="E79" t="b">
-        <v>1</v>
-      </c>
       <c r="F79" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
         <v>77</v>
       </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D80" t="s">
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
         <v>78</v>
       </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
       <c r="F80" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
         <v>78</v>
       </c>
-      <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D81" t="s">
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
         <v>79</v>
       </c>
-      <c r="E81" t="b">
-        <v>1</v>
-      </c>
       <c r="F81" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
         <v>79</v>
       </c>
-      <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D82" t="s">
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
         <v>80</v>
       </c>
-      <c r="E82" t="b">
-        <v>0</v>
-      </c>
       <c r="F82" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
         <v>80</v>
       </c>
-      <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
         <v>81</v>
       </c>
-      <c r="E83" t="b">
-        <v>1</v>
-      </c>
       <c r="F83" t="b">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
         <v>81</v>
       </c>
-      <c r="H83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
         <v>82</v>
       </c>
-      <c r="E84" t="b">
-        <v>0</v>
-      </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
         <v>82</v>
       </c>
-      <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D85" t="s">
+        <v>0</v>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
         <v>83</v>
       </c>
-      <c r="E85" t="b">
-        <v>1</v>
-      </c>
       <c r="F85" t="b">
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
         <v>83</v>
       </c>
-      <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D86" t="s">
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
         <v>84</v>
       </c>
-      <c r="E86" t="b">
-        <v>0</v>
-      </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
         <v>84</v>
       </c>
-      <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D87" t="s">
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
         <v>85</v>
       </c>
-      <c r="E87" t="b">
-        <v>1</v>
-      </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
         <v>85</v>
       </c>
-      <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D88" t="s">
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
         <v>86</v>
       </c>
-      <c r="E88" t="b">
-        <v>0</v>
-      </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
         <v>86</v>
       </c>
-      <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
         <v>87</v>
       </c>
-      <c r="E89" t="b">
-        <v>0</v>
-      </c>
       <c r="F89" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
         <v>87</v>
       </c>
-      <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
         <v>88</v>
       </c>
-      <c r="E90" t="b">
-        <v>1</v>
-      </c>
       <c r="F90" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
         <v>88</v>
       </c>
-      <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D91" t="s">
+      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
         <v>89</v>
       </c>
-      <c r="E91" t="b">
-        <v>0</v>
-      </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
         <v>89</v>
       </c>
-      <c r="H91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
         <v>90</v>
       </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
       <c r="F92" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
         <v>90</v>
       </c>
-      <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
         <v>91</v>
       </c>
-      <c r="E93" t="b">
-        <v>1</v>
-      </c>
       <c r="F93" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
         <v>91</v>
       </c>
-      <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D94" t="s">
+        <v>0</v>
+      </c>
+      <c r="K93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
         <v>92</v>
       </c>
-      <c r="E94" t="b">
-        <v>0</v>
-      </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
         <v>92</v>
       </c>
-      <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D95" t="s">
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
         <v>93</v>
       </c>
-      <c r="E95" t="b">
-        <v>0</v>
-      </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
         <v>93</v>
       </c>
-      <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D96" t="s">
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
         <v>94</v>
       </c>
-      <c r="E96" t="b">
-        <v>0</v>
-      </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
         <v>94</v>
       </c>
-      <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D97" t="s">
+        <v>0</v>
+      </c>
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
         <v>95</v>
       </c>
-      <c r="E97" t="b">
-        <v>0</v>
-      </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
         <v>95</v>
       </c>
-      <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D98" t="s">
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
         <v>96</v>
       </c>
-      <c r="E98" t="b">
-        <v>0</v>
-      </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
         <v>96</v>
       </c>
-      <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D99" t="s">
+        <v>0</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
         <v>97</v>
       </c>
-      <c r="E99" t="b">
-        <v>0</v>
-      </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
         <v>97</v>
       </c>
-      <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D100" t="s">
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
         <v>98</v>
       </c>
-      <c r="E100" t="b">
-        <v>1</v>
-      </c>
       <c r="F100" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
         <v>98</v>
       </c>
-      <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D101" t="s">
+        <v>1</v>
+      </c>
+      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
         <v>99</v>
       </c>
-      <c r="E101" t="b">
-        <v>0</v>
-      </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
         <v>99</v>
       </c>
-      <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D102" t="s">
+        <v>0</v>
+      </c>
+      <c r="K101" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
         <v>100</v>
       </c>
-      <c r="E102" t="b">
-        <v>0</v>
-      </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
         <v>100</v>
       </c>
-      <c r="H102" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
       <c r="J102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D103" t="s">
+        <v>0</v>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
         <v>101</v>
       </c>
-      <c r="E103" t="b">
-        <v>0</v>
-      </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
         <v>101</v>
       </c>
-      <c r="H103" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
       <c r="J103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D104" t="s">
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
         <v>102</v>
       </c>
-      <c r="E104" t="b">
-        <v>0</v>
-      </c>
       <c r="F104" t="b">
         <v>0</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
         <v>102</v>
       </c>
-      <c r="H104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
       <c r="J104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D105" t="s">
+        <v>1</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
         <v>103</v>
       </c>
-      <c r="E105" t="b">
-        <v>0</v>
-      </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
         <v>103</v>
       </c>
-      <c r="H105" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
       <c r="J105" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D106" t="s">
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
         <v>104</v>
       </c>
-      <c r="E106" t="b">
-        <v>0</v>
-      </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
         <v>104</v>
       </c>
-      <c r="H106" t="b">
-        <v>1</v>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
       <c r="J106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D107" t="s">
+        <v>1</v>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
         <v>105</v>
       </c>
-      <c r="E107" t="b">
-        <v>0</v>
-      </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
         <v>105</v>
       </c>
-      <c r="H107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
       <c r="J107" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D108" t="s">
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
         <v>106</v>
       </c>
-      <c r="E108" t="b">
-        <v>0</v>
-      </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
         <v>106</v>
       </c>
-      <c r="H108" t="b">
-        <v>1</v>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
       <c r="J108" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D109" t="s">
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
         <v>107</v>
       </c>
-      <c r="E109" t="b">
-        <v>0</v>
-      </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
         <v>107</v>
       </c>
-      <c r="H109" t="b">
-        <v>1</v>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
       <c r="J109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D110" t="s">
+        <v>1</v>
+      </c>
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
         <v>108</v>
       </c>
-      <c r="E110" t="b">
-        <v>1</v>
-      </c>
       <c r="F110" t="b">
-        <v>0</v>
-      </c>
-      <c r="G110" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
         <v>108</v>
       </c>
-      <c r="H110" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
       <c r="J110" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D111" t="s">
+      <c r="K110" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
         <v>109</v>
       </c>
-      <c r="E111" t="b">
-        <v>0</v>
-      </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
         <v>109</v>
       </c>
-      <c r="H111" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
       <c r="J111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D112" t="s">
+      <c r="K111" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
         <v>110</v>
       </c>
-      <c r="E112" t="b">
-        <v>0</v>
-      </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
         <v>110</v>
       </c>
-      <c r="H112" t="b">
-        <v>0</v>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
       <c r="J112" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D113" t="s">
+      <c r="K112" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
         <v>111</v>
       </c>
-      <c r="E113" t="b">
-        <v>1</v>
-      </c>
       <c r="F113" t="b">
-        <v>0</v>
-      </c>
-      <c r="G113" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
         <v>111</v>
       </c>
-      <c r="H113" t="b">
-        <v>0</v>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
       <c r="J113" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D114" t="s">
+      <c r="K113" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
         <v>112</v>
       </c>
-      <c r="E114" t="b">
-        <v>0</v>
-      </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
         <v>112</v>
       </c>
-      <c r="H114" t="b">
-        <v>1</v>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
       <c r="J114" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D115" t="s">
+      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
         <v>113</v>
       </c>
-      <c r="E115" t="b">
-        <v>1</v>
-      </c>
       <c r="F115" t="b">
-        <v>0</v>
-      </c>
-      <c r="G115" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
         <v>113</v>
       </c>
-      <c r="H115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
       <c r="J115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D116" t="s">
+        <v>0</v>
+      </c>
+      <c r="K115" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
         <v>114</v>
       </c>
-      <c r="E116" t="b">
-        <v>1</v>
-      </c>
       <c r="F116" t="b">
         <v>1</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
         <v>114</v>
       </c>
-      <c r="H116" t="b">
-        <v>1</v>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
       <c r="J116" t="b">
         <v>1</v>
       </c>
+      <c r="K116" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:F116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="B1:D1048576">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F1048576 H2:H116">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+  <conditionalFormatting sqref="J2:J116 F1:H1048576">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J116">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="K10:K11">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L116">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6733742-BD15-42FE-8528-2ACD8541517C}">
+  <dimension ref="A1:B115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B115" xr:uid="{B6733742-BD15-42FE-8528-2ACD8541517C}"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="796" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F7BFB4-DE56-48F3-A806-76837DA36681}"/>
+  <xr:revisionPtr revIDLastSave="827" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D81F2F62-8800-42D7-B1D6-94522A5CAA75}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$G$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$B$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -608,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,12 +629,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -669,84 +663,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1218,10 +1144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,19 +1181,19 @@
       <c r="E1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>120</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>118</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1276,7 +1203,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1504,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1542,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1618,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1656,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1612,7 @@
         <v>10</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1770,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1846,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1922,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2037,7 +1964,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="b">
@@ -2074,8 +2001,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="b">
@@ -2112,8 +2039,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="b">
@@ -2151,7 +2078,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="b">
@@ -2189,7 +2116,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="b">
@@ -2226,8 +2153,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="b">
@@ -2264,8 +2191,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="b">
@@ -2302,8 +2229,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="b">
@@ -2340,8 +2267,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="b">
@@ -2378,8 +2305,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="b">
@@ -2416,8 +2343,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="b">
@@ -2454,8 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+    <row r="33" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>31</v>
       </c>
@@ -2481,8 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
+    <row r="34" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>32</v>
       </c>
@@ -2508,8 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
+    <row r="35" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>33</v>
       </c>
@@ -2535,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>34</v>
       </c>
@@ -2561,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>35</v>
       </c>
@@ -2587,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>36</v>
       </c>
@@ -2613,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>37</v>
       </c>
@@ -2639,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>38</v>
       </c>
@@ -2665,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>39</v>
       </c>
@@ -2691,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>40</v>
       </c>
@@ -2717,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>41</v>
       </c>
@@ -2743,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>42</v>
       </c>
@@ -2760,7 +2684,7 @@
         <v>42</v>
       </c>
       <c r="J44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -2769,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>43</v>
       </c>
@@ -2795,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>44</v>
       </c>
@@ -2821,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>45</v>
       </c>
@@ -2847,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>46</v>
       </c>
@@ -2873,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>47</v>
       </c>
@@ -2899,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>48</v>
       </c>
@@ -2925,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>49</v>
       </c>
@@ -2951,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>50</v>
       </c>
@@ -3003,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>52</v>
       </c>
@@ -3029,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>53</v>
       </c>
@@ -3055,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>54</v>
       </c>
@@ -3081,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>55</v>
       </c>
@@ -3159,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>58</v>
       </c>
@@ -3497,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
         <v>71</v>
       </c>
@@ -3523,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>72</v>
       </c>
@@ -3549,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
         <v>73</v>
       </c>
@@ -3627,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
         <v>76</v>
       </c>
@@ -3731,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
         <v>80</v>
       </c>
@@ -3757,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
         <v>81</v>
       </c>
@@ -3783,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
         <v>82</v>
       </c>
@@ -3887,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
         <v>86</v>
       </c>
@@ -3913,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
         <v>87</v>
       </c>
@@ -3965,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
         <v>89</v>
       </c>
@@ -3991,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
         <v>90</v>
       </c>
@@ -4017,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
         <v>91</v>
       </c>
@@ -4095,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E96" t="s">
         <v>94</v>
       </c>
@@ -4121,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
         <v>95</v>
       </c>
@@ -4147,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E98" t="s">
         <v>96</v>
       </c>
@@ -4199,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E100" t="s">
         <v>98</v>
       </c>
@@ -4225,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E101" t="s">
         <v>99</v>
       </c>
@@ -4251,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E102" t="s">
         <v>100</v>
       </c>
@@ -4303,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E104" t="s">
         <v>102</v>
       </c>
@@ -4355,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E106" t="s">
         <v>104</v>
       </c>
@@ -4381,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E107" t="s">
         <v>105</v>
       </c>
@@ -4407,12 +4331,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E108" t="s">
         <v>106</v>
       </c>
       <c r="F108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
@@ -4433,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E109" t="s">
         <v>107</v>
       </c>
@@ -4459,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E110" t="s">
         <v>108</v>
       </c>
@@ -4563,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
         <v>112</v>
       </c>
@@ -4589,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
         <v>113</v>
       </c>
@@ -4615,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
         <v>114</v>
       </c>
@@ -4642,32 +4566,44 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J116 F1:H1048576">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+  <conditionalFormatting sqref="F1:H1048576 J2:J116">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K11">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K106">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L116">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="831" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68DD266A-39D2-497E-A862-7408F9EA1248}"/>
+  <xr:revisionPtr revIDLastSave="870" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0141E717-108E-44DD-B5FD-A50BAA159885}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1144,17 +1144,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
@@ -1203,7 +1203,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>31</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>32</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>33</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>34</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>35</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>36</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>37</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>38</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>39</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>40</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>41</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>42</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>43</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>44</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>45</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>46</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>47</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>48</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>49</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>50</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>51</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>52</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>53</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>54</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>55</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>56</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>57</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>58</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>59</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>60</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>61</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>62</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>63</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>64</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>65</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>66</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>67</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>68</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>69</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>70</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>71</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>72</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>73</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>74</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>75</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>76</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>77</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>78</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>79</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>80</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>81</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>82</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>83</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>84</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>85</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>86</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>87</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>88</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>89</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>90</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>91</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>92</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>93</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>94</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
         <v>95</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>96</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>97</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>98</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>99</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>100</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>101</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>102</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>103</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
         <v>104</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>105</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>106</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
         <v>107</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>108</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
         <v>109</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>110</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>111</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>112</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>113</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>114</v>
       </c>
@@ -4566,23 +4566,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
@@ -4613,7 +4597,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="870" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0141E717-108E-44DD-B5FD-A50BAA159885}"/>
+  <xr:revisionPtr revIDLastSave="877" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E392C42-2129-4252-B1F8-3066573398AD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1144,10 +1144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>36</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>44</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>46</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>50</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>51</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>54</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>57</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>58</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>59</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>62</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>63</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>64</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>65</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>67</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>68</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>70</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>71</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>72</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>73</v>
       </c>
@@ -3499,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>74</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>75</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>76</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>77</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>78</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>79</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>80</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>81</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>82</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>83</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>84</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>85</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>86</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>87</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>88</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>89</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>90</v>
       </c>
@@ -3941,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>91</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>92</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>93</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>94</v>
       </c>
@@ -4045,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
         <v>95</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>96</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>97</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>98</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>99</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>100</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>101</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>102</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>103</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
         <v>104</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>105</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>106</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
         <v>107</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>108</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>110</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>111</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>112</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>113</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>114</v>
       </c>
@@ -4566,7 +4567,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
+  <autoFilter ref="A1:L116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="877" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E392C42-2129-4252-B1F8-3066573398AD}"/>
+  <xr:revisionPtr revIDLastSave="894" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{858DB71F-0695-48B8-9E16-6410D60B5C63}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1148,25 +1148,25 @@
   <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="I4" sqref="I4:I113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>31</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>32</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>33</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>34</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>35</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>36</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>37</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>38</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>39</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>40</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>41</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>42</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>43</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>44</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>45</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>46</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>47</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>48</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>49</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>50</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>51</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>52</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>53</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>54</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>55</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
         <v>56</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
         <v>57</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>58</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
         <v>59</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
         <v>60</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
         <v>61</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
         <v>62</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>63</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
         <v>64</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E67" t="s">
         <v>65</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>66</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
         <v>67</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
         <v>68</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
         <v>69</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>70</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
         <v>71</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>72</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
         <v>73</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E76" t="s">
         <v>74</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E77" t="s">
         <v>75</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
         <v>76</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>77</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E80" t="s">
         <v>78</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E81" t="s">
         <v>79</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
         <v>80</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
         <v>81</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
         <v>82</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E85" t="s">
         <v>83</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
         <v>84</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E87" t="s">
         <v>85</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
         <v>86</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
         <v>87</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E90" t="s">
         <v>88</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
         <v>89</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
         <v>90</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
         <v>91</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
         <v>92</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E95" t="s">
         <v>93</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E96" t="s">
         <v>94</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
         <v>95</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E98" t="s">
         <v>96</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E99" t="s">
         <v>97</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E100" t="s">
         <v>98</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E101" t="s">
         <v>99</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E102" t="s">
         <v>100</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E103" t="s">
         <v>101</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E104" t="s">
         <v>102</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E105" t="s">
         <v>103</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E106" t="s">
         <v>104</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E107" t="s">
         <v>105</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E108" t="s">
         <v>106</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E109" t="s">
         <v>107</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E110" t="s">
         <v>108</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E111" t="s">
         <v>109</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E112" t="s">
         <v>110</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E113" t="s">
         <v>111</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
         <v>112</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
         <v>113</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
         <v>114</v>
       </c>
@@ -4568,17 +4568,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-    <filterColumn colId="5">
+    <filterColumn colId="9">
       <filters>
         <filter val="FALSE"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
+    <filterColumn colId="11">
       <filters>
         <filter val="FALSE"/>
       </filters>
@@ -4627,13 +4622,13 @@
       <selection activeCell="B1" sqref="B1:B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4641,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4649,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4657,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4665,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4673,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4681,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4689,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4697,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4705,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4713,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4721,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4729,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4737,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4745,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4753,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4761,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4769,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4777,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4785,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4793,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4801,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4809,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4817,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4825,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4833,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4841,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4849,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4857,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4865,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4873,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4881,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4889,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4897,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4905,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4913,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4921,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4929,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4937,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4945,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4953,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4961,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4969,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4977,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4985,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4993,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5001,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5009,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5017,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5025,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5033,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5041,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5049,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5057,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5065,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5073,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5081,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5089,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5097,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5105,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5113,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5121,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5129,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5137,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5145,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5153,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5161,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5169,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5177,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5185,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5193,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5201,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5209,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5217,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5225,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5233,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5241,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5249,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5257,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5265,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5273,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5281,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5289,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5297,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -5305,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -5313,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -5321,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -5329,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -5337,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5345,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5353,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5361,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -5369,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5377,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5385,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -5393,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -5401,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5409,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5417,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -5425,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5433,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -5441,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5449,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -5457,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -5465,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5473,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -5481,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -5489,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5497,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -5505,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -5513,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -5521,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -5529,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -5537,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -5545,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="894" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{858DB71F-0695-48B8-9E16-6410D60B5C63}"/>
+  <xr:revisionPtr revIDLastSave="895" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C182989-E2F7-4DA3-B0E7-44105774DB9C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1144,29 +1144,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:I113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1432,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1584,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>31</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>32</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>33</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>34</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>35</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>36</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>37</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>38</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>39</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>40</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>41</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>42</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>43</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>44</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>45</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>46</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>47</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>48</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>49</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>50</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>51</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>52</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>53</v>
       </c>
@@ -2980,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>54</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>55</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>56</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>57</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>58</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>59</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>60</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>61</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>62</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>63</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>64</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>65</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>66</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>67</v>
       </c>
@@ -3344,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>68</v>
       </c>
@@ -3370,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>69</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>70</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>71</v>
       </c>
@@ -3448,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>72</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>73</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>74</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>75</v>
       </c>
@@ -3552,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>76</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>77</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>78</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>79</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>80</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>81</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>82</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>83</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>84</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>85</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>86</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>87</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>88</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>89</v>
       </c>
@@ -3916,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>90</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>91</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>92</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>93</v>
       </c>
@@ -4020,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>94</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
         <v>95</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>96</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>97</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>98</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>99</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>100</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>101</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>102</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>103</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
         <v>104</v>
       </c>
@@ -4306,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>105</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>106</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
         <v>107</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>108</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
         <v>109</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>110</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>111</v>
       </c>
@@ -4488,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>112</v>
       </c>
@@ -4514,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>113</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>114</v>
       </c>
@@ -4567,18 +4566,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
@@ -4622,13 +4610,13 @@
       <selection activeCell="B1" sqref="B1:B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4636,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4644,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4652,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4660,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4668,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4676,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4684,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4692,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4700,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4708,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4716,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4724,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4732,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4740,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4748,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4756,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4764,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4772,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4780,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4788,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4796,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4804,7 +4792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4812,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4820,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4828,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4836,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4844,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4852,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4860,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4868,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4876,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4884,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4892,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4900,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4908,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4916,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4924,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4932,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4940,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4948,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4956,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4964,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4972,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4980,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4988,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4996,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5004,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5012,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5020,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5028,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5036,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5044,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5052,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5060,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5068,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5076,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5084,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5092,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5100,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5108,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5116,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5124,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5132,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5140,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5148,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5156,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5164,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5172,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5180,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5188,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5196,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5204,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5212,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5220,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5228,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5236,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5244,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5252,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5260,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5268,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5276,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5284,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5292,7 +5280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -5300,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -5308,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -5316,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -5324,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -5332,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5340,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5348,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5356,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -5364,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5372,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5380,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -5388,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -5396,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5404,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5412,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -5420,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5428,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -5436,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5444,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -5452,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -5460,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5468,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -5476,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -5484,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5492,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -5500,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -5508,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -5516,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -5524,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -5532,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -5540,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="895" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C182989-E2F7-4DA3-B0E7-44105774DB9C}"/>
+  <xr:revisionPtr revIDLastSave="908" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27033247-D442-4C2E-AB25-4ACA24E987E3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="122">
   <si>
     <t>OG0000000</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>OG0000115</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I113"/>
+      <selection activeCell="A3" sqref="A3:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,7 +2237,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -4563,6 +4566,32 @@
       </c>
       <c r="L116" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>121</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>121</v>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4605,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:H1048576 J2:J116">
+  <conditionalFormatting sqref="F1:H1048576 J2:J117 K117">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -4591,7 +4620,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L116">
+  <conditionalFormatting sqref="L2:L117">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="908" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27033247-D442-4C2E-AB25-4ACA24E987E3}"/>
+  <xr:revisionPtr revIDLastSave="921" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9EFA940-884E-439F-BEAE-EDE91C9A36DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1150,25 +1150,25 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A29"/>
+      <selection activeCell="K4" sqref="K4:K113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>31</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>32</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>33</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>34</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>35</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>36</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>37</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>38</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>39</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>40</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>41</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>42</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>43</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>44</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>45</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>46</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>47</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>48</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>49</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>50</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>51</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>52</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>53</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>54</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>55</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
         <v>56</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
         <v>57</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>58</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
         <v>59</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
         <v>60</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
         <v>61</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
         <v>62</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>63</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
         <v>64</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E67" t="s">
         <v>65</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>66</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
         <v>67</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
         <v>68</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
         <v>69</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>70</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
         <v>71</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>72</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
         <v>73</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E76" t="s">
         <v>74</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E77" t="s">
         <v>75</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
         <v>76</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>77</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E80" t="s">
         <v>78</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E81" t="s">
         <v>79</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
         <v>80</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
         <v>81</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
         <v>82</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E85" t="s">
         <v>83</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
         <v>84</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E87" t="s">
         <v>85</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
         <v>86</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
         <v>87</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E90" t="s">
         <v>88</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
         <v>89</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
         <v>90</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
         <v>91</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
         <v>92</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E95" t="s">
         <v>93</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E96" t="s">
         <v>94</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
         <v>95</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E98" t="s">
         <v>96</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E99" t="s">
         <v>97</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E100" t="s">
         <v>98</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E101" t="s">
         <v>99</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E102" t="s">
         <v>100</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E103" t="s">
         <v>101</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E104" t="s">
         <v>102</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E105" t="s">
         <v>103</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E106" t="s">
         <v>104</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E107" t="s">
         <v>105</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E108" t="s">
         <v>106</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E109" t="s">
         <v>107</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E110" t="s">
         <v>108</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E111" t="s">
         <v>109</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E112" t="s">
         <v>110</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E113" t="s">
         <v>111</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
         <v>112</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
         <v>113</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
         <v>114</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
         <v>121</v>
       </c>
@@ -4639,13 +4639,13 @@
       <selection activeCell="B1" sqref="B1:B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="921" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9EFA940-884E-439F-BEAE-EDE91C9A36DC}"/>
+  <xr:revisionPtr revIDLastSave="1168" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1B24876-2FDC-4D18-9B17-D8214DB9576F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="3660" yWindow="1728" windowWidth="18444" windowHeight="9060" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K113"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="58" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1168" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1B24876-2FDC-4D18-9B17-D8214DB9576F}"/>
+  <xr:revisionPtr revIDLastSave="1209" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E221930-E44F-4404-AE27-B924DB3A5650}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1728" windowWidth="18444" windowHeight="9060" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,204 +38,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={0AFB43E9-6C67-4A5C-8149-003C166BBE15}</author>
-    <author>tc={9A3AB837-42E6-490C-BBB6-E33BFDC4F4A7}</author>
-    <author>tc={9C07D3C4-1C42-4ED4-A0A6-BAC7A2382877}</author>
-    <author>tc={68A2920C-225B-4A03-9C84-6B994EEA813E}</author>
-    <author>tc={25C6B889-74E2-489E-99AF-BA6556EEBA52}</author>
-    <author>tc={DE3C649B-059E-441C-B972-EBAF9EBFF424}</author>
-    <author>tc={0B788EB9-3DE1-4831-AA75-C67C2562597A}</author>
-    <author>tc={CD504131-FC5A-442A-8D52-93E56956360B}</author>
-    <author>tc={72F66FC8-83B7-4860-A48C-18B72149FF90}</author>
-    <author>tc={B35CAB75-546F-45E9-9954-4C8A11A29590}</author>
-    <author>tc={83BB326C-8A37-4FEF-94D7-6CD6AC88E587}</author>
-    <author>tc={962D91F9-D259-4EAC-AAF4-3BE2677CA376}</author>
-    <author>tc={8161B9CE-E997-40FC-9756-1B3F80AA3811}</author>
-    <author>tc={1AE0F2D7-1F6F-40A1-A212-52C8D33FFF0D}</author>
-    <author>tc={3C6F5A1B-BD7A-47B4-B88D-D72B5EF1D4BD}</author>
-    <author>tc={775D52E0-5C93-4BDD-8B1B-C3270CD88D0B}</author>
-    <author>tc={AC935F55-BFF2-4258-8A91-9A8B36A02DFB}</author>
-    <author>tc={D86AB512-0C81-4FC3-9724-E0B0B35C6675}</author>
-    <author>tc={2740E655-C4B8-4A82-BEAB-30DCAD0D8327}</author>
-    <author>tc={092D71B2-2F5E-4888-88BB-EF17F5E44EF6}</author>
-    <author>tc={0F92A923-18B6-4906-8411-8625F182B144}</author>
-  </authors>
-  <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{0AFB43E9-6C67-4A5C-8149-003C166BBE15}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ISKNV</t>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{9A3AB837-42E6-490C-BBB6-E33BFDC4F4A7}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="2" shapeId="0" xr:uid="{9C07D3C4-1C42-4ED4-A0A6-BAC7A2382877}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F20" authorId="3" shapeId="0" xr:uid="{68A2920C-225B-4A03-9C84-6B994EEA813E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TRBIV or TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F29" authorId="4" shapeId="0" xr:uid="{25C6B889-74E2-489E-99AF-BA6556EEBA52}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TSIV, TRBIV, maybe SDDV</t>
-      </text>
-    </comment>
-    <comment ref="F48" authorId="5" shapeId="0" xr:uid="{DE3C649B-059E-441C-B972-EBAF9EBFF424}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TSIV or TRBIV</t>
-      </text>
-    </comment>
-    <comment ref="F59" authorId="6" shapeId="0" xr:uid="{0B788EB9-3DE1-4831-AA75-C67C2562597A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F66" authorId="7" shapeId="0" xr:uid="{CD504131-FC5A-442A-8D52-93E56956360B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TRBIV</t>
-      </text>
-    </comment>
-    <comment ref="F69" authorId="8" shapeId="0" xr:uid="{72F66FC8-83B7-4860-A48C-18B72149FF90}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ISKNV or TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F72" authorId="9" shapeId="0" xr:uid="{B35CAB75-546F-45E9-9954-4C8A11A29590}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TRBIV and TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F85" authorId="10" shapeId="0" xr:uid="{83BB326C-8A37-4FEF-94D7-6CD6AC88E587}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ISKNV and TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F87" authorId="11" shapeId="0" xr:uid="{962D91F9-D259-4EAC-AAF4-3BE2677CA376}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ISKNV and SDDV</t>
-      </text>
-    </comment>
-    <comment ref="F89" authorId="12" shapeId="0" xr:uid="{8161B9CE-E997-40FC-9756-1B3F80AA3811}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ISKNV and TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F90" authorId="13" shapeId="0" xr:uid="{1AE0F2D7-1F6F-40A1-A212-52C8D33FFF0D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ISKNV and TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F92" authorId="14" shapeId="0" xr:uid="{3C6F5A1B-BD7A-47B4-B88D-D72B5EF1D4BD}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TRBIV and TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F93" authorId="15" shapeId="0" xr:uid="{775D52E0-5C93-4BDD-8B1B-C3270CD88D0B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TSIV, ISKNV</t>
-      </text>
-    </comment>
-    <comment ref="F100" authorId="16" shapeId="0" xr:uid="{AC935F55-BFF2-4258-8A91-9A8B36A02DFB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ISKNV or TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F110" authorId="17" shapeId="0" xr:uid="{D86AB512-0C81-4FC3-9724-E0B0B35C6675}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TSIV or RSIV</t>
-      </text>
-    </comment>
-    <comment ref="F113" authorId="18" shapeId="0" xr:uid="{2740E655-C4B8-4A82-BEAB-30DCAD0D8327}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ISKNV and TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F115" authorId="19" shapeId="0" xr:uid="{092D71B2-2F5E-4888-88BB-EF17F5E44EF6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TSIV</t>
-      </text>
-    </comment>
-    <comment ref="F116" authorId="20" shapeId="0" xr:uid="{0F92A923-18B6-4906-8411-8625F182B144}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    TSIV, SDDV</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,11 +468,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,9 +560,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Hannaford, Polly (AAHL, Geelong ACDP)" id="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" userId="S::han394@csiro.au::ce3b099b-feb8-492e-85ff-2cbd0f66ca7f" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1077,80 +878,15 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J3" dT="2025-04-24T03:58:20.96" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0AFB43E9-6C67-4A5C-8149-003C166BBE15}">
-    <text>ISKNV</text>
-  </threadedComment>
-  <threadedComment ref="F7" dT="2025-04-23T23:55:22.85" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{9A3AB837-42E6-490C-BBB6-E33BFDC4F4A7}">
-    <text>TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F10" dT="2025-04-23T23:57:17.05" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{9C07D3C4-1C42-4ED4-A0A6-BAC7A2382877}">
-    <text>TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F20" dT="2025-04-24T00:04:17.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{68A2920C-225B-4A03-9C84-6B994EEA813E}">
-    <text>TRBIV or TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F29" dT="2025-04-24T00:13:11.75" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{25C6B889-74E2-489E-99AF-BA6556EEBA52}">
-    <text>TSIV, TRBIV, maybe SDDV</text>
-  </threadedComment>
-  <threadedComment ref="F48" dT="2025-04-24T00:27:26.36" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{DE3C649B-059E-441C-B972-EBAF9EBFF424}">
-    <text>TSIV or TRBIV</text>
-  </threadedComment>
-  <threadedComment ref="F59" dT="2025-04-24T00:35:42.72" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0B788EB9-3DE1-4831-AA75-C67C2562597A}">
-    <text>TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F66" dT="2025-04-24T00:41:15.65" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{CD504131-FC5A-442A-8D52-93E56956360B}">
-    <text>TRBIV</text>
-  </threadedComment>
-  <threadedComment ref="F69" dT="2025-04-24T00:43:58.15" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{72F66FC8-83B7-4860-A48C-18B72149FF90}">
-    <text>ISKNV or TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F72" dT="2025-04-24T00:52:26.30" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{B35CAB75-546F-45E9-9954-4C8A11A29590}">
-    <text>TRBIV and TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F85" dT="2025-04-24T01:04:11.53" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{83BB326C-8A37-4FEF-94D7-6CD6AC88E587}">
-    <text>ISKNV and TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F87" dT="2025-04-24T01:05:16.59" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{962D91F9-D259-4EAC-AAF4-3BE2677CA376}">
-    <text>ISKNV and SDDV</text>
-  </threadedComment>
-  <threadedComment ref="F89" dT="2025-04-24T01:20:10.42" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{8161B9CE-E997-40FC-9756-1B3F80AA3811}">
-    <text>ISKNV and TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F90" dT="2025-04-24T01:20:10.42" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{1AE0F2D7-1F6F-40A1-A212-52C8D33FFF0D}">
-    <text>ISKNV and TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F92" dT="2025-04-24T01:21:40.83" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{3C6F5A1B-BD7A-47B4-B88D-D72B5EF1D4BD}">
-    <text>TRBIV and TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F93" dT="2025-04-24T01:22:26.91" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{775D52E0-5C93-4BDD-8B1B-C3270CD88D0B}">
-    <text>TSIV, ISKNV</text>
-  </threadedComment>
-  <threadedComment ref="F100" dT="2025-04-24T01:27:14.73" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{AC935F55-BFF2-4258-8A91-9A8B36A02DFB}">
-    <text>ISKNV or TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F110" dT="2025-04-24T01:32:31.21" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{D86AB512-0C81-4FC3-9724-E0B0B35C6675}">
-    <text>TSIV or RSIV</text>
-  </threadedComment>
-  <threadedComment ref="F113" dT="2025-04-24T01:34:26.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{2740E655-C4B8-4A82-BEAB-30DCAD0D8327}">
-    <text>ISKNV and TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F115" dT="2025-04-24T01:39:39.49" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{092D71B2-2F5E-4888-88BB-EF17F5E44EF6}">
-    <text>TSIV</text>
-  </threadedComment>
-  <threadedComment ref="F116" dT="2025-04-24T01:40:10.45" personId="{C38B53A6-AA68-4CEE-85A3-41B93A63CD69}" id="{0F92A923-18B6-4906-8411-8625F182B144}">
-    <text>TSIV, SDDV</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="58" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A118"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="78" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,7 +967,7 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="b">
@@ -1269,7 +1005,7 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J3" t="b">
@@ -1307,7 +1043,7 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J4" t="b">
@@ -1345,7 +1081,7 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J5" t="b">
@@ -1383,7 +1119,7 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="b">
@@ -1421,7 +1157,7 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J7" t="b">
@@ -1459,7 +1195,7 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J8" t="b">
@@ -1497,7 +1233,7 @@
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J9" t="b">
@@ -1535,7 +1271,7 @@
       <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J10" t="b">
@@ -1573,7 +1309,7 @@
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J11" t="b">
@@ -1611,7 +1347,7 @@
       <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="b">
@@ -1649,7 +1385,7 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J13" t="b">
@@ -1687,7 +1423,7 @@
       <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="b">
@@ -1725,7 +1461,7 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J15" t="b">
@@ -1763,7 +1499,7 @@
       <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J16" t="b">
@@ -1801,7 +1537,7 @@
       <c r="H17" t="b">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J17" t="b">
@@ -1839,7 +1575,7 @@
       <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J18" t="b">
@@ -1877,7 +1613,7 @@
       <c r="H19" t="b">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J19" t="b">
@@ -1915,7 +1651,7 @@
       <c r="H20" t="b">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J20" t="b">
@@ -1953,7 +1689,7 @@
       <c r="H21" t="b">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J21" t="b">
@@ -1991,7 +1727,7 @@
       <c r="H22" t="b">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J22" t="b">
@@ -2029,7 +1765,7 @@
       <c r="H23" t="b">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J23" t="b">
@@ -2067,7 +1803,7 @@
       <c r="H24" t="b">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J24" t="b">
@@ -2105,7 +1841,7 @@
       <c r="H25" t="b">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J25" t="b">
@@ -2143,7 +1879,7 @@
       <c r="H26" t="b">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J26" t="b">
@@ -2181,7 +1917,7 @@
       <c r="H27" t="b">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J27" t="b">
@@ -2219,7 +1955,7 @@
       <c r="H28" t="b">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J28" t="b">
@@ -2257,7 +1993,7 @@
       <c r="H29" t="b">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J29" t="b">
@@ -2295,7 +2031,7 @@
       <c r="H30" t="b">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J30" t="b">
@@ -2333,7 +2069,7 @@
       <c r="H31" t="b">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J31" t="b">
@@ -2371,7 +2107,7 @@
       <c r="H32" t="b">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J32" t="b">
@@ -2397,7 +2133,7 @@
       <c r="H33" t="b">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J33" t="b">
@@ -2423,7 +2159,7 @@
       <c r="H34" t="b">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="4" t="s">
         <v>32</v>
       </c>
       <c r="J34" t="b">
@@ -2449,7 +2185,7 @@
       <c r="H35" t="b">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="J35" t="b">
@@ -2475,7 +2211,7 @@
       <c r="H36" t="b">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J36" t="b">
@@ -2501,7 +2237,7 @@
       <c r="H37" t="b">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="J37" t="b">
@@ -2527,7 +2263,7 @@
       <c r="H38" t="b">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J38" t="b">
@@ -2553,7 +2289,7 @@
       <c r="H39" t="b">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J39" t="b">
@@ -2579,7 +2315,7 @@
       <c r="H40" t="b">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="4" t="s">
         <v>38</v>
       </c>
       <c r="J40" t="b">
@@ -2605,7 +2341,7 @@
       <c r="H41" t="b">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="J41" t="b">
@@ -2631,7 +2367,7 @@
       <c r="H42" t="b">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J42" t="b">
@@ -2657,7 +2393,7 @@
       <c r="H43" t="b">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J43" t="b">
@@ -2683,7 +2419,7 @@
       <c r="H44" t="b">
         <v>0</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J44" t="b">
@@ -2709,7 +2445,7 @@
       <c r="H45" t="b">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J45" t="b">
@@ -2735,7 +2471,7 @@
       <c r="H46" t="b">
         <v>0</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J46" t="b">
@@ -2761,7 +2497,7 @@
       <c r="H47" t="b">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="4" t="s">
         <v>45</v>
       </c>
       <c r="J47" t="b">
@@ -2787,7 +2523,7 @@
       <c r="H48" t="b">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J48" t="b">
@@ -2813,7 +2549,7 @@
       <c r="H49" t="b">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J49" t="b">
@@ -2839,7 +2575,7 @@
       <c r="H50" t="b">
         <v>0</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J50" t="b">
@@ -2865,7 +2601,7 @@
       <c r="H51" t="b">
         <v>0</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J51" t="b">
@@ -2891,7 +2627,7 @@
       <c r="H52" t="b">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J52" t="b">
@@ -2917,7 +2653,7 @@
       <c r="H53" t="b">
         <v>0</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="4" t="s">
         <v>51</v>
       </c>
       <c r="J53" t="b">
@@ -2943,7 +2679,7 @@
       <c r="H54" t="b">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J54" t="b">
@@ -2969,7 +2705,7 @@
       <c r="H55" t="b">
         <v>0</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J55" t="b">
@@ -2995,7 +2731,7 @@
       <c r="H56" t="b">
         <v>0</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="J56" t="b">
@@ -3021,7 +2757,7 @@
       <c r="H57" t="b">
         <v>0</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="J57" t="b">
@@ -3047,7 +2783,7 @@
       <c r="H58" t="b">
         <v>0</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J58" t="b">
@@ -3073,7 +2809,7 @@
       <c r="H59" t="b">
         <v>0</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="J59" t="b">
@@ -3099,7 +2835,7 @@
       <c r="H60" t="b">
         <v>0</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="J60" t="b">
@@ -3125,7 +2861,7 @@
       <c r="H61" t="b">
         <v>0</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J61" t="b">
@@ -3151,7 +2887,7 @@
       <c r="H62" t="b">
         <v>0</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="4" t="s">
         <v>60</v>
       </c>
       <c r="J62" t="b">
@@ -3177,7 +2913,7 @@
       <c r="H63" t="b">
         <v>0</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="4" t="s">
         <v>61</v>
       </c>
       <c r="J63" t="b">
@@ -3195,7 +2931,7 @@
         <v>62</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -3203,7 +2939,7 @@
       <c r="H64" t="b">
         <v>0</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="4" t="s">
         <v>62</v>
       </c>
       <c r="J64" t="b">
@@ -3229,7 +2965,7 @@
       <c r="H65" t="b">
         <v>0</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="4" t="s">
         <v>63</v>
       </c>
       <c r="J65" t="b">
@@ -3255,7 +2991,7 @@
       <c r="H66" t="b">
         <v>0</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="4" t="s">
         <v>64</v>
       </c>
       <c r="J66" t="b">
@@ -3281,7 +3017,7 @@
       <c r="H67" t="b">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J67" t="b">
@@ -3307,7 +3043,7 @@
       <c r="H68" t="b">
         <v>0</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J68" t="b">
@@ -3333,7 +3069,7 @@
       <c r="H69" t="b">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="4" t="s">
         <v>67</v>
       </c>
       <c r="J69" t="b">
@@ -3359,7 +3095,7 @@
       <c r="H70" t="b">
         <v>0</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="4" t="s">
         <v>68</v>
       </c>
       <c r="J70" t="b">
@@ -3385,7 +3121,7 @@
       <c r="H71" t="b">
         <v>0</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J71" t="b">
@@ -3411,7 +3147,7 @@
       <c r="H72" t="b">
         <v>0</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="4" t="s">
         <v>70</v>
       </c>
       <c r="J72" t="b">
@@ -3437,7 +3173,7 @@
       <c r="H73" t="b">
         <v>0</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J73" t="b">
@@ -3463,7 +3199,7 @@
       <c r="H74" t="b">
         <v>0</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="b">
@@ -3489,7 +3225,7 @@
       <c r="H75" t="b">
         <v>0</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J75" t="b">
@@ -3515,7 +3251,7 @@
       <c r="H76" t="b">
         <v>0</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J76" t="b">
@@ -3541,7 +3277,7 @@
       <c r="H77" t="b">
         <v>0</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J77" t="b">
@@ -3567,7 +3303,7 @@
       <c r="H78" t="b">
         <v>0</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J78" t="b">
@@ -3593,7 +3329,7 @@
       <c r="H79" t="b">
         <v>0</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J79" t="b">
@@ -3619,7 +3355,7 @@
       <c r="H80" t="b">
         <v>0</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="4" t="s">
         <v>78</v>
       </c>
       <c r="J80" t="b">
@@ -3645,7 +3381,7 @@
       <c r="H81" t="b">
         <v>0</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="4" t="s">
         <v>79</v>
       </c>
       <c r="J81" t="b">
@@ -3671,7 +3407,7 @@
       <c r="H82" t="b">
         <v>0</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J82" t="b">
@@ -3697,7 +3433,7 @@
       <c r="H83" t="b">
         <v>0</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="4" t="s">
         <v>81</v>
       </c>
       <c r="J83" t="b">
@@ -3723,7 +3459,7 @@
       <c r="H84" t="b">
         <v>1</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J84" t="b">
@@ -3749,7 +3485,7 @@
       <c r="H85" t="b">
         <v>0</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="4" t="s">
         <v>83</v>
       </c>
       <c r="J85" t="b">
@@ -3775,7 +3511,7 @@
       <c r="H86" t="b">
         <v>1</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="4" t="s">
         <v>84</v>
       </c>
       <c r="J86" t="b">
@@ -3801,7 +3537,7 @@
       <c r="H87" t="b">
         <v>0</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="4" t="s">
         <v>85</v>
       </c>
       <c r="J87" t="b">
@@ -3827,7 +3563,7 @@
       <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="4" t="s">
         <v>86</v>
       </c>
       <c r="J88" t="b">
@@ -3853,7 +3589,7 @@
       <c r="H89" t="b">
         <v>0</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J89" t="b">
@@ -3879,7 +3615,7 @@
       <c r="H90" t="b">
         <v>0</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="4" t="s">
         <v>88</v>
       </c>
       <c r="J90" t="b">
@@ -3905,7 +3641,7 @@
       <c r="H91" t="b">
         <v>1</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="4" t="s">
         <v>89</v>
       </c>
       <c r="J91" t="b">
@@ -3931,7 +3667,7 @@
       <c r="H92" t="b">
         <v>0</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J92" t="b">
@@ -3957,7 +3693,7 @@
       <c r="H93" t="b">
         <v>0</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="4" t="s">
         <v>91</v>
       </c>
       <c r="J93" t="b">
@@ -3983,7 +3719,7 @@
       <c r="H94" t="b">
         <v>1</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="4" t="s">
         <v>92</v>
       </c>
       <c r="J94" t="b">
@@ -4009,7 +3745,7 @@
       <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="4" t="s">
         <v>93</v>
       </c>
       <c r="J95" t="b">
@@ -4035,7 +3771,7 @@
       <c r="H96" t="b">
         <v>1</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J96" t="b">
@@ -4061,7 +3797,7 @@
       <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="4" t="s">
         <v>95</v>
       </c>
       <c r="J97" t="b">
@@ -4087,7 +3823,7 @@
       <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="4" t="s">
         <v>96</v>
       </c>
       <c r="J98" t="b">
@@ -4113,7 +3849,7 @@
       <c r="H99" t="b">
         <v>1</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="4" t="s">
         <v>97</v>
       </c>
       <c r="J99" t="b">
@@ -4139,7 +3875,7 @@
       <c r="H100" t="b">
         <v>0</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J100" t="b">
@@ -4165,7 +3901,7 @@
       <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="4" t="s">
         <v>99</v>
       </c>
       <c r="J101" t="b">
@@ -4191,7 +3927,7 @@
       <c r="H102" t="b">
         <v>1</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="4" t="s">
         <v>100</v>
       </c>
       <c r="J102" t="b">
@@ -4217,7 +3953,7 @@
       <c r="H103" t="b">
         <v>1</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="4" t="s">
         <v>101</v>
       </c>
       <c r="J103" t="b">
@@ -4243,7 +3979,7 @@
       <c r="H104" t="b">
         <v>1</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J104" t="b">
@@ -4269,7 +4005,7 @@
       <c r="H105" t="b">
         <v>1</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="4" t="s">
         <v>103</v>
       </c>
       <c r="J105" t="b">
@@ -4295,7 +4031,7 @@
       <c r="H106" t="b">
         <v>1</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J106" t="b">
@@ -4321,7 +4057,7 @@
       <c r="H107" t="b">
         <v>1</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="4" t="s">
         <v>105</v>
       </c>
       <c r="J107" t="b">
@@ -4347,7 +4083,7 @@
       <c r="H108" t="b">
         <v>0</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="4" t="s">
         <v>106</v>
       </c>
       <c r="J108" t="b">
@@ -4373,7 +4109,7 @@
       <c r="H109" t="b">
         <v>1</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="4" t="s">
         <v>107</v>
       </c>
       <c r="J109" t="b">
@@ -4399,7 +4135,7 @@
       <c r="H110" t="b">
         <v>0</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="4" t="s">
         <v>108</v>
       </c>
       <c r="J110" t="b">
@@ -4425,7 +4161,7 @@
       <c r="H111" t="b">
         <v>0</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="4" t="s">
         <v>109</v>
       </c>
       <c r="J111" t="b">
@@ -4451,7 +4187,7 @@
       <c r="H112" t="b">
         <v>1</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="4" t="s">
         <v>110</v>
       </c>
       <c r="J112" t="b">
@@ -4477,7 +4213,7 @@
       <c r="H113" t="b">
         <v>0</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="4" t="s">
         <v>111</v>
       </c>
       <c r="J113" t="b">
@@ -4503,7 +4239,7 @@
       <c r="H114" t="b">
         <v>1</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="4" t="s">
         <v>112</v>
       </c>
       <c r="J114" t="b">
@@ -4529,7 +4265,7 @@
       <c r="H115" t="b">
         <v>0</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="4" t="s">
         <v>113</v>
       </c>
       <c r="J115" t="b">
@@ -4555,7 +4291,7 @@
       <c r="H116" t="b">
         <v>0</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="4" t="s">
         <v>114</v>
       </c>
       <c r="J116" t="b">
@@ -4581,7 +4317,7 @@
       <c r="H117" t="b">
         <v>0</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="4" t="s">
         <v>121</v>
       </c>
       <c r="J117" t="b">
@@ -4595,7 +4331,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L116" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
@@ -4626,8 +4361,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1209" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E221930-E44F-4404-AE27-B924DB3A5650}"/>
+  <xr:revisionPtr revIDLastSave="1270" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FD09837-6DBB-4504-A168-45485DC3B2DF}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$116</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$B$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="122">
   <si>
     <t>OG0000000</t>
   </si>
@@ -468,27 +466,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -885,8 +872,8 @@
   </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="78" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,7 +884,8 @@
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="8" width="18" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
     <col min="9" max="9" width="23.88671875" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" customWidth="1"/>
@@ -967,7 +955,7 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="b">
@@ -1005,7 +993,7 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" t="b">
@@ -1023,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1043,7 +1031,7 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" t="b">
@@ -1081,7 +1069,7 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" t="b">
@@ -1119,7 +1107,7 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="b">
@@ -1157,7 +1145,7 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" t="b">
@@ -1195,7 +1183,7 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" t="s">
         <v>6</v>
       </c>
       <c r="J8" t="b">
@@ -1233,7 +1221,7 @@
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" t="s">
         <v>7</v>
       </c>
       <c r="J9" t="b">
@@ -1271,7 +1259,7 @@
       <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" t="s">
         <v>8</v>
       </c>
       <c r="J10" t="b">
@@ -1309,7 +1297,7 @@
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" t="s">
         <v>9</v>
       </c>
       <c r="J11" t="b">
@@ -1347,7 +1335,7 @@
       <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="b">
@@ -1385,7 +1373,7 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" t="s">
         <v>11</v>
       </c>
       <c r="J13" t="b">
@@ -1423,7 +1411,7 @@
       <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="b">
@@ -1461,7 +1449,7 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" t="s">
         <v>13</v>
       </c>
       <c r="J15" t="b">
@@ -1499,7 +1487,7 @@
       <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" t="s">
         <v>14</v>
       </c>
       <c r="J16" t="b">
@@ -1537,7 +1525,7 @@
       <c r="H17" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" t="s">
         <v>15</v>
       </c>
       <c r="J17" t="b">
@@ -1575,7 +1563,7 @@
       <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" t="s">
         <v>16</v>
       </c>
       <c r="J18" t="b">
@@ -1613,7 +1601,7 @@
       <c r="H19" t="b">
         <v>0</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" t="s">
         <v>17</v>
       </c>
       <c r="J19" t="b">
@@ -1651,7 +1639,7 @@
       <c r="H20" t="b">
         <v>0</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" t="s">
         <v>18</v>
       </c>
       <c r="J20" t="b">
@@ -1689,7 +1677,7 @@
       <c r="H21" t="b">
         <v>0</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" t="s">
         <v>19</v>
       </c>
       <c r="J21" t="b">
@@ -1727,7 +1715,7 @@
       <c r="H22" t="b">
         <v>0</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" t="s">
         <v>20</v>
       </c>
       <c r="J22" t="b">
@@ -1765,7 +1753,7 @@
       <c r="H23" t="b">
         <v>0</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" t="s">
         <v>21</v>
       </c>
       <c r="J23" t="b">
@@ -1803,7 +1791,7 @@
       <c r="H24" t="b">
         <v>0</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" t="s">
         <v>22</v>
       </c>
       <c r="J24" t="b">
@@ -1841,7 +1829,7 @@
       <c r="H25" t="b">
         <v>0</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" t="s">
         <v>23</v>
       </c>
       <c r="J25" t="b">
@@ -1879,7 +1867,7 @@
       <c r="H26" t="b">
         <v>0</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" t="s">
         <v>24</v>
       </c>
       <c r="J26" t="b">
@@ -1917,7 +1905,7 @@
       <c r="H27" t="b">
         <v>0</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" t="s">
         <v>25</v>
       </c>
       <c r="J27" t="b">
@@ -1955,7 +1943,7 @@
       <c r="H28" t="b">
         <v>0</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" t="s">
         <v>26</v>
       </c>
       <c r="J28" t="b">
@@ -1993,7 +1981,7 @@
       <c r="H29" t="b">
         <v>0</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" t="s">
         <v>27</v>
       </c>
       <c r="J29" t="b">
@@ -2031,7 +2019,7 @@
       <c r="H30" t="b">
         <v>0</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" t="s">
         <v>28</v>
       </c>
       <c r="J30" t="b">
@@ -2069,7 +2057,7 @@
       <c r="H31" t="b">
         <v>0</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" t="s">
         <v>29</v>
       </c>
       <c r="J31" t="b">
@@ -2107,7 +2095,7 @@
       <c r="H32" t="b">
         <v>0</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" t="s">
         <v>30</v>
       </c>
       <c r="J32" t="b">
@@ -2133,7 +2121,7 @@
       <c r="H33" t="b">
         <v>0</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" t="s">
         <v>31</v>
       </c>
       <c r="J33" t="b">
@@ -2159,7 +2147,7 @@
       <c r="H34" t="b">
         <v>0</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" t="s">
         <v>32</v>
       </c>
       <c r="J34" t="b">
@@ -2185,7 +2173,7 @@
       <c r="H35" t="b">
         <v>0</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" t="s">
         <v>33</v>
       </c>
       <c r="J35" t="b">
@@ -2211,7 +2199,7 @@
       <c r="H36" t="b">
         <v>0</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" t="s">
         <v>34</v>
       </c>
       <c r="J36" t="b">
@@ -2237,7 +2225,7 @@
       <c r="H37" t="b">
         <v>0</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" t="s">
         <v>35</v>
       </c>
       <c r="J37" t="b">
@@ -2255,7 +2243,7 @@
         <v>36</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -2263,7 +2251,7 @@
       <c r="H38" t="b">
         <v>0</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" t="s">
         <v>36</v>
       </c>
       <c r="J38" t="b">
@@ -2289,7 +2277,7 @@
       <c r="H39" t="b">
         <v>0</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" t="s">
         <v>37</v>
       </c>
       <c r="J39" t="b">
@@ -2315,7 +2303,7 @@
       <c r="H40" t="b">
         <v>0</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" t="s">
         <v>38</v>
       </c>
       <c r="J40" t="b">
@@ -2341,7 +2329,7 @@
       <c r="H41" t="b">
         <v>0</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" t="s">
         <v>39</v>
       </c>
       <c r="J41" t="b">
@@ -2367,7 +2355,7 @@
       <c r="H42" t="b">
         <v>0</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" t="s">
         <v>40</v>
       </c>
       <c r="J42" t="b">
@@ -2393,7 +2381,7 @@
       <c r="H43" t="b">
         <v>0</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" t="s">
         <v>41</v>
       </c>
       <c r="J43" t="b">
@@ -2411,7 +2399,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2419,7 +2407,7 @@
       <c r="H44" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" t="s">
         <v>42</v>
       </c>
       <c r="J44" t="b">
@@ -2445,7 +2433,7 @@
       <c r="H45" t="b">
         <v>0</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" t="s">
         <v>43</v>
       </c>
       <c r="J45" t="b">
@@ -2471,7 +2459,7 @@
       <c r="H46" t="b">
         <v>0</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" t="s">
         <v>44</v>
       </c>
       <c r="J46" t="b">
@@ -2497,7 +2485,7 @@
       <c r="H47" t="b">
         <v>0</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" t="s">
         <v>45</v>
       </c>
       <c r="J47" t="b">
@@ -2523,7 +2511,7 @@
       <c r="H48" t="b">
         <v>0</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" t="s">
         <v>46</v>
       </c>
       <c r="J48" t="b">
@@ -2549,7 +2537,7 @@
       <c r="H49" t="b">
         <v>0</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" t="s">
         <v>47</v>
       </c>
       <c r="J49" t="b">
@@ -2575,7 +2563,7 @@
       <c r="H50" t="b">
         <v>0</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" t="s">
         <v>48</v>
       </c>
       <c r="J50" t="b">
@@ -2601,7 +2589,7 @@
       <c r="H51" t="b">
         <v>0</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" t="s">
         <v>49</v>
       </c>
       <c r="J51" t="b">
@@ -2627,7 +2615,7 @@
       <c r="H52" t="b">
         <v>0</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" t="s">
         <v>50</v>
       </c>
       <c r="J52" t="b">
@@ -2653,7 +2641,7 @@
       <c r="H53" t="b">
         <v>0</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" t="s">
         <v>51</v>
       </c>
       <c r="J53" t="b">
@@ -2679,7 +2667,7 @@
       <c r="H54" t="b">
         <v>0</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" t="s">
         <v>52</v>
       </c>
       <c r="J54" t="b">
@@ -2705,7 +2693,7 @@
       <c r="H55" t="b">
         <v>0</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" t="s">
         <v>53</v>
       </c>
       <c r="J55" t="b">
@@ -2723,7 +2711,7 @@
         <v>54</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -2731,7 +2719,7 @@
       <c r="H56" t="b">
         <v>0</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" t="s">
         <v>54</v>
       </c>
       <c r="J56" t="b">
@@ -2757,7 +2745,7 @@
       <c r="H57" t="b">
         <v>0</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" t="s">
         <v>55</v>
       </c>
       <c r="J57" t="b">
@@ -2783,7 +2771,7 @@
       <c r="H58" t="b">
         <v>0</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" t="s">
         <v>56</v>
       </c>
       <c r="J58" t="b">
@@ -2809,7 +2797,7 @@
       <c r="H59" t="b">
         <v>0</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" t="s">
         <v>57</v>
       </c>
       <c r="J59" t="b">
@@ -2835,7 +2823,7 @@
       <c r="H60" t="b">
         <v>0</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" t="s">
         <v>58</v>
       </c>
       <c r="J60" t="b">
@@ -2853,7 +2841,7 @@
         <v>59</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -2861,7 +2849,7 @@
       <c r="H61" t="b">
         <v>0</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" t="s">
         <v>59</v>
       </c>
       <c r="J61" t="b">
@@ -2887,7 +2875,7 @@
       <c r="H62" t="b">
         <v>0</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" t="s">
         <v>60</v>
       </c>
       <c r="J62" t="b">
@@ -2913,7 +2901,7 @@
       <c r="H63" t="b">
         <v>0</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I63" t="s">
         <v>61</v>
       </c>
       <c r="J63" t="b">
@@ -2939,7 +2927,7 @@
       <c r="H64" t="b">
         <v>0</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" t="s">
         <v>62</v>
       </c>
       <c r="J64" t="b">
@@ -2965,7 +2953,7 @@
       <c r="H65" t="b">
         <v>0</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" t="s">
         <v>63</v>
       </c>
       <c r="J65" t="b">
@@ -2991,7 +2979,7 @@
       <c r="H66" t="b">
         <v>0</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" t="s">
         <v>64</v>
       </c>
       <c r="J66" t="b">
@@ -3017,7 +3005,7 @@
       <c r="H67" t="b">
         <v>0</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I67" t="s">
         <v>65</v>
       </c>
       <c r="J67" t="b">
@@ -3035,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -3043,7 +3031,7 @@
       <c r="H68" t="b">
         <v>0</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I68" t="s">
         <v>66</v>
       </c>
       <c r="J68" t="b">
@@ -3069,7 +3057,7 @@
       <c r="H69" t="b">
         <v>0</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" t="s">
         <v>67</v>
       </c>
       <c r="J69" t="b">
@@ -3095,7 +3083,7 @@
       <c r="H70" t="b">
         <v>0</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I70" t="s">
         <v>68</v>
       </c>
       <c r="J70" t="b">
@@ -3113,7 +3101,7 @@
         <v>69</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -3121,7 +3109,7 @@
       <c r="H71" t="b">
         <v>0</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" t="s">
         <v>69</v>
       </c>
       <c r="J71" t="b">
@@ -3147,7 +3135,7 @@
       <c r="H72" t="b">
         <v>0</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I72" t="s">
         <v>70</v>
       </c>
       <c r="J72" t="b">
@@ -3173,7 +3161,7 @@
       <c r="H73" t="b">
         <v>0</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I73" t="s">
         <v>71</v>
       </c>
       <c r="J73" t="b">
@@ -3199,7 +3187,7 @@
       <c r="H74" t="b">
         <v>0</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I74" t="s">
         <v>72</v>
       </c>
       <c r="J74" t="b">
@@ -3225,7 +3213,7 @@
       <c r="H75" t="b">
         <v>0</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I75" t="s">
         <v>73</v>
       </c>
       <c r="J75" t="b">
@@ -3251,7 +3239,7 @@
       <c r="H76" t="b">
         <v>0</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I76" t="s">
         <v>74</v>
       </c>
       <c r="J76" t="b">
@@ -3277,7 +3265,7 @@
       <c r="H77" t="b">
         <v>0</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="I77" t="s">
         <v>75</v>
       </c>
       <c r="J77" t="b">
@@ -3303,7 +3291,7 @@
       <c r="H78" t="b">
         <v>0</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I78" t="s">
         <v>76</v>
       </c>
       <c r="J78" t="b">
@@ -3329,7 +3317,7 @@
       <c r="H79" t="b">
         <v>0</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" t="s">
         <v>77</v>
       </c>
       <c r="J79" t="b">
@@ -3355,7 +3343,7 @@
       <c r="H80" t="b">
         <v>0</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I80" t="s">
         <v>78</v>
       </c>
       <c r="J80" t="b">
@@ -3381,7 +3369,7 @@
       <c r="H81" t="b">
         <v>0</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I81" t="s">
         <v>79</v>
       </c>
       <c r="J81" t="b">
@@ -3407,7 +3395,7 @@
       <c r="H82" t="b">
         <v>0</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I82" t="s">
         <v>80</v>
       </c>
       <c r="J82" t="b">
@@ -3433,7 +3421,7 @@
       <c r="H83" t="b">
         <v>0</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I83" t="s">
         <v>81</v>
       </c>
       <c r="J83" t="b">
@@ -3459,7 +3447,7 @@
       <c r="H84" t="b">
         <v>1</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" t="s">
         <v>82</v>
       </c>
       <c r="J84" t="b">
@@ -3485,7 +3473,7 @@
       <c r="H85" t="b">
         <v>0</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="I85" t="s">
         <v>83</v>
       </c>
       <c r="J85" t="b">
@@ -3511,7 +3499,7 @@
       <c r="H86" t="b">
         <v>1</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I86" t="s">
         <v>84</v>
       </c>
       <c r="J86" t="b">
@@ -3537,7 +3525,7 @@
       <c r="H87" t="b">
         <v>0</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I87" t="s">
         <v>85</v>
       </c>
       <c r="J87" t="b">
@@ -3563,7 +3551,7 @@
       <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" t="s">
         <v>86</v>
       </c>
       <c r="J88" t="b">
@@ -3589,7 +3577,7 @@
       <c r="H89" t="b">
         <v>0</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I89" t="s">
         <v>87</v>
       </c>
       <c r="J89" t="b">
@@ -3615,7 +3603,7 @@
       <c r="H90" t="b">
         <v>0</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I90" t="s">
         <v>88</v>
       </c>
       <c r="J90" t="b">
@@ -3641,7 +3629,7 @@
       <c r="H91" t="b">
         <v>1</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I91" t="s">
         <v>89</v>
       </c>
       <c r="J91" t="b">
@@ -3667,7 +3655,7 @@
       <c r="H92" t="b">
         <v>0</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I92" t="s">
         <v>90</v>
       </c>
       <c r="J92" t="b">
@@ -3693,7 +3681,7 @@
       <c r="H93" t="b">
         <v>0</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="I93" t="s">
         <v>91</v>
       </c>
       <c r="J93" t="b">
@@ -3719,7 +3707,7 @@
       <c r="H94" t="b">
         <v>1</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I94" t="s">
         <v>92</v>
       </c>
       <c r="J94" t="b">
@@ -3745,7 +3733,7 @@
       <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="I95" s="4" t="s">
+      <c r="I95" t="s">
         <v>93</v>
       </c>
       <c r="J95" t="b">
@@ -3771,7 +3759,7 @@
       <c r="H96" t="b">
         <v>1</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="I96" t="s">
         <v>94</v>
       </c>
       <c r="J96" t="b">
@@ -3797,7 +3785,7 @@
       <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="I97" t="s">
         <v>95</v>
       </c>
       <c r="J97" t="b">
@@ -3823,7 +3811,7 @@
       <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I98" t="s">
         <v>96</v>
       </c>
       <c r="J98" t="b">
@@ -3849,7 +3837,7 @@
       <c r="H99" t="b">
         <v>1</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="I99" t="s">
         <v>97</v>
       </c>
       <c r="J99" t="b">
@@ -3875,7 +3863,7 @@
       <c r="H100" t="b">
         <v>0</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="I100" t="s">
         <v>98</v>
       </c>
       <c r="J100" t="b">
@@ -3901,7 +3889,7 @@
       <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I101" t="s">
         <v>99</v>
       </c>
       <c r="J101" t="b">
@@ -3927,7 +3915,7 @@
       <c r="H102" t="b">
         <v>1</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I102" t="s">
         <v>100</v>
       </c>
       <c r="J102" t="b">
@@ -3953,7 +3941,7 @@
       <c r="H103" t="b">
         <v>1</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="I103" t="s">
         <v>101</v>
       </c>
       <c r="J103" t="b">
@@ -3979,7 +3967,7 @@
       <c r="H104" t="b">
         <v>1</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="I104" t="s">
         <v>102</v>
       </c>
       <c r="J104" t="b">
@@ -4005,7 +3993,7 @@
       <c r="H105" t="b">
         <v>1</v>
       </c>
-      <c r="I105" s="4" t="s">
+      <c r="I105" t="s">
         <v>103</v>
       </c>
       <c r="J105" t="b">
@@ -4031,7 +4019,7 @@
       <c r="H106" t="b">
         <v>1</v>
       </c>
-      <c r="I106" s="4" t="s">
+      <c r="I106" t="s">
         <v>104</v>
       </c>
       <c r="J106" t="b">
@@ -4057,7 +4045,7 @@
       <c r="H107" t="b">
         <v>1</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="I107" t="s">
         <v>105</v>
       </c>
       <c r="J107" t="b">
@@ -4083,7 +4071,7 @@
       <c r="H108" t="b">
         <v>0</v>
       </c>
-      <c r="I108" s="4" t="s">
+      <c r="I108" t="s">
         <v>106</v>
       </c>
       <c r="J108" t="b">
@@ -4109,7 +4097,7 @@
       <c r="H109" t="b">
         <v>1</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="I109" t="s">
         <v>107</v>
       </c>
       <c r="J109" t="b">
@@ -4135,7 +4123,7 @@
       <c r="H110" t="b">
         <v>0</v>
       </c>
-      <c r="I110" s="4" t="s">
+      <c r="I110" t="s">
         <v>108</v>
       </c>
       <c r="J110" t="b">
@@ -4161,7 +4149,7 @@
       <c r="H111" t="b">
         <v>0</v>
       </c>
-      <c r="I111" s="4" t="s">
+      <c r="I111" t="s">
         <v>109</v>
       </c>
       <c r="J111" t="b">
@@ -4187,7 +4175,7 @@
       <c r="H112" t="b">
         <v>1</v>
       </c>
-      <c r="I112" s="4" t="s">
+      <c r="I112" t="s">
         <v>110</v>
       </c>
       <c r="J112" t="b">
@@ -4213,7 +4201,7 @@
       <c r="H113" t="b">
         <v>0</v>
       </c>
-      <c r="I113" s="4" t="s">
+      <c r="I113" t="s">
         <v>111</v>
       </c>
       <c r="J113" t="b">
@@ -4239,7 +4227,7 @@
       <c r="H114" t="b">
         <v>1</v>
       </c>
-      <c r="I114" s="4" t="s">
+      <c r="I114" t="s">
         <v>112</v>
       </c>
       <c r="J114" t="b">
@@ -4265,7 +4253,7 @@
       <c r="H115" t="b">
         <v>0</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="I115" t="s">
         <v>113</v>
       </c>
       <c r="J115" t="b">
@@ -4291,7 +4279,7 @@
       <c r="H116" t="b">
         <v>0</v>
       </c>
-      <c r="I116" s="4" t="s">
+      <c r="I116" t="s">
         <v>114</v>
       </c>
       <c r="J116" t="b">
@@ -4317,7 +4305,7 @@
       <c r="H117" t="b">
         <v>0</v>
       </c>
-      <c r="I117" s="4" t="s">
+      <c r="I117" t="s">
         <v>121</v>
       </c>
       <c r="J117" t="b">
@@ -4331,981 +4319,37 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1048576 J2:J117 K117">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K11">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K106">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L117">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6733742-BD15-42FE-8528-2ACD8541517C}">
-  <dimension ref="A1:B115"/>
-  <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B115"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:B115" xr:uid="{B6733742-BD15-42FE-8528-2ACD8541517C}"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1270" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FD09837-6DBB-4504-A168-45485DC3B2DF}"/>
+  <xr:revisionPtr revIDLastSave="1274" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50533885-2C14-4FE4-AB8A-82278B224EBF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -873,7 +873,7 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4319,7 +4319,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
+  <autoFilter ref="A1:L117" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1274" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50533885-2C14-4FE4-AB8A-82278B224EBF}"/>
+  <xr:revisionPtr revIDLastSave="1276" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E572F42-0206-4C0A-AE8D-431CF9158EF8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -873,7 +873,7 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1276" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E572F42-0206-4C0A-AE8D-431CF9158EF8}"/>
+  <xr:revisionPtr revIDLastSave="1287" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5782BA60-01A3-41AC-8D1A-56A641618F53}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -867,13 +867,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="F72" zoomScale="95" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="L117" sqref="L4:L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,7 +930,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>31</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>32</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>33</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>34</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>35</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>36</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>37</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>38</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>39</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>40</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>43</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>44</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>46</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>50</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>52</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>53</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>54</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>55</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>58</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
         <v>82</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
         <v>87</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
         <v>91</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E96" t="s">
         <v>94</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
         <v>95</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E98" t="s">
         <v>96</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E100" t="s">
         <v>98</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E101" t="s">
         <v>99</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E102" t="s">
         <v>100</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E107" t="s">
         <v>105</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E108" t="s">
         <v>106</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E110" t="s">
         <v>108</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
         <v>112</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
         <v>113</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
         <v>114</v>
       </c>
@@ -4319,7 +4319,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L117" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
+  <autoFilter ref="A1:L117" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1287" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5782BA60-01A3-41AC-8D1A-56A641618F53}"/>
+  <xr:revisionPtr revIDLastSave="1293" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02BCE1E5-D3ED-47F3-A00E-5FB2692EC511}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -867,32 +867,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F72" zoomScale="95" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="L117" sqref="L4:L117"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84:H114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -930,7 +930,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>31</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>32</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>33</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>34</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>35</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>36</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>37</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>38</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>39</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>40</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>41</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>42</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>43</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>44</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>46</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>47</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>48</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>49</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>50</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>51</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>52</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>53</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>54</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>55</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>56</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>57</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>58</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>59</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>60</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>61</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>62</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>63</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>64</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>65</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>66</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>67</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>68</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>69</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>70</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>71</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>72</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>73</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>74</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>75</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>76</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>77</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>78</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>79</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>80</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>81</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>82</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>83</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>84</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>85</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>86</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>87</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>88</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>89</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>90</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>91</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>92</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>93</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>94</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
         <v>95</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>96</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>97</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>98</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>99</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>100</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>101</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>102</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>103</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
         <v>104</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>105</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>106</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
         <v>107</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>108</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
         <v>109</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>110</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>111</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>112</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>113</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>114</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>121</v>
       </c>
@@ -4319,13 +4319,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L117" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L117" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">

--- a/gene_review.xlsx
+++ b/gene_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1293" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02BCE1E5-D3ED-47F3-A00E-5FB2692EC511}"/>
+  <xr:revisionPtr revIDLastSave="1301" documentId="8_{6055D0A3-676A-4D4D-A9E1-9A76BC3762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD45B697-29FB-4A1E-9D9B-3778ADBFA097}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{6F9A2E0A-FCD5-4099-AB1E-88BFB846A76D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -867,32 +867,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84:H114"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.68359375" customWidth="1"/>
+    <col min="2" max="2" width="10.68359375" customWidth="1"/>
+    <col min="3" max="3" width="16.26171875" customWidth="1"/>
+    <col min="4" max="4" width="17.83984375" customWidth="1"/>
+    <col min="5" max="5" width="17.68359375" customWidth="1"/>
+    <col min="6" max="6" width="17.578125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.83984375" customWidth="1"/>
+    <col min="9" max="9" width="23.83984375" customWidth="1"/>
+    <col min="10" max="10" width="17.68359375" customWidth="1"/>
+    <col min="11" max="11" width="16.26171875" customWidth="1"/>
+    <col min="12" max="12" width="15.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -930,7 +930,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
         <v>31</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" t="s">
         <v>32</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E35" t="s">
         <v>33</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" t="s">
         <v>34</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" t="s">
         <v>35</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" t="s">
         <v>36</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E39" t="s">
         <v>37</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" t="s">
         <v>38</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" t="s">
         <v>39</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" t="s">
         <v>40</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" t="s">
         <v>41</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" t="s">
         <v>42</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E45" t="s">
         <v>43</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E46" t="s">
         <v>44</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E47" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" t="s">
         <v>46</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E49" t="s">
         <v>47</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E50" t="s">
         <v>48</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E51" t="s">
         <v>49</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E52" t="s">
         <v>50</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E53" t="s">
         <v>51</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E54" t="s">
         <v>52</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E55" t="s">
         <v>53</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E56" t="s">
         <v>54</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E57" t="s">
         <v>55</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E58" t="s">
         <v>56</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E59" t="s">
         <v>57</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E60" t="s">
         <v>58</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" t="s">
         <v>59</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E62" t="s">
         <v>60</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E63" t="s">
         <v>61</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E64" t="s">
         <v>62</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E65" t="s">
         <v>63</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E66" t="s">
         <v>64</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E67" t="s">
         <v>65</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E68" t="s">
         <v>66</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E69" t="s">
         <v>67</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E70" t="s">
         <v>68</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E71" t="s">
         <v>69</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E72" t="s">
         <v>70</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E73" t="s">
         <v>71</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E74" t="s">
         <v>72</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E75" t="s">
         <v>73</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E76" t="s">
         <v>74</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E77" t="s">
         <v>75</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E78" t="s">
         <v>76</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E79" t="s">
         <v>77</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E80" t="s">
         <v>78</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E81" t="s">
         <v>79</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E82" t="s">
         <v>80</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E83" t="s">
         <v>81</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E84" t="s">
         <v>82</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E85" t="s">
         <v>83</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E86" t="s">
         <v>84</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E87" t="s">
         <v>85</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E88" t="s">
         <v>86</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E89" t="s">
         <v>87</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E90" t="s">
         <v>88</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E91" t="s">
         <v>89</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E92" t="s">
         <v>90</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E93" t="s">
         <v>91</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E94" t="s">
         <v>92</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E95" t="s">
         <v>93</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E96" t="s">
         <v>94</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E97" t="s">
         <v>95</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E98" t="s">
         <v>96</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E99" t="s">
         <v>97</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E100" t="s">
         <v>98</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E101" t="s">
         <v>99</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E102" t="s">
         <v>100</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E103" t="s">
         <v>101</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E104" t="s">
         <v>102</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E105" t="s">
         <v>103</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E106" t="s">
         <v>104</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E107" t="s">
         <v>105</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E108" t="s">
         <v>106</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E109" t="s">
         <v>107</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E110" t="s">
         <v>108</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E111" t="s">
         <v>109</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E112" t="s">
         <v>110</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E113" t="s">
         <v>111</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E114" t="s">
         <v>112</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E115" t="s">
         <v>113</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E116" t="s">
         <v>114</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E117" t="s">
         <v>121</v>
       </c>
@@ -4319,7 +4319,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L117" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}"/>
+  <autoFilter ref="A1:L117" xr:uid="{A9EFB773-84C8-4FDF-A3F8-2F632CD15839}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
@@ -4351,5 +4357,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KFF0000 OFFICIAL&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;KFF0000 OFFICIAL</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>